--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="71">
-        <v>43677</v>
+        <v>43687</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="73" t="s">
@@ -2429,7 +2429,7 @@
         <v>43558</v>
       </c>
       <c r="E10" s="71">
-        <v>43677</v>
+        <v>43687</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="73" t="s">
@@ -2463,7 +2463,7 @@
         <v>43558</v>
       </c>
       <c r="E11" s="71">
-        <v>43678</v>
+        <v>43687</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="73" t="s">
@@ -2497,7 +2497,7 @@
         <v>43558</v>
       </c>
       <c r="E12" s="71">
-        <v>43678</v>
+        <v>43687</v>
       </c>
       <c r="F12" s="71">
         <v>43723</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -399,9 +399,6 @@
     <t>Cattlemanure</t>
   </si>
   <si>
-    <t>K4DS</t>
-  </si>
-  <si>
     <t>O2DS</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>C4DS</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1425,7 @@
         <v>58</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>59</v>
@@ -1882,60 +1882,60 @@
         <v>11</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="M8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>132</v>
-      </c>
       <c r="N8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="64"/>
       <c r="R8" s="64"/>
       <c r="S8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U8" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V8" s="64"/>
     </row>
@@ -1952,7 +1952,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="64" t="s">
         <v>62</v>
@@ -2185,10 +2185,10 @@
         <v>119</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>29</v>
@@ -3448,7 +3448,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,21 +3464,21 @@
         <v>65</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="84" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>63</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>64</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>64</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="72" t="s">
         <v>64</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>121</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>64</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>121</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="soil_climate_more" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$L$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -222,12 +222,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>Pigslurry</t>
-  </si>
-  <si>
-    <t>Cattleslurry</t>
-  </si>
-  <si>
     <t>Manuretype</t>
   </si>
   <si>
@@ -297,12 +291,6 @@
     <t>K8</t>
   </si>
   <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>K10</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -396,9 +384,6 @@
     <t>GræsVstart</t>
   </si>
   <si>
-    <t>Cattlemanure</t>
-  </si>
-  <si>
     <t>O2DS</t>
   </si>
   <si>
@@ -439,6 +424,45 @@
   </si>
   <si>
     <t>C4DS</t>
+  </si>
+  <si>
+    <t>KK9</t>
+  </si>
+  <si>
+    <t>KØ9</t>
+  </si>
+  <si>
+    <t>KK10</t>
+  </si>
+  <si>
+    <t>KØ10</t>
+  </si>
+  <si>
+    <t>PløjesKløvergræs</t>
+  </si>
+  <si>
+    <t>KløvergræsV</t>
+  </si>
+  <si>
+    <t>KløvergræsP</t>
+  </si>
+  <si>
+    <t>KløvergræsVstart</t>
+  </si>
+  <si>
+    <t>Fertil2Date</t>
+  </si>
+  <si>
+    <t>Fertil1Date</t>
+  </si>
+  <si>
+    <t>pig_slurry</t>
+  </si>
+  <si>
+    <t>cattle_slurry</t>
+  </si>
+  <si>
+    <t>manure</t>
   </si>
 </sst>
 </file>
@@ -565,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -836,11 +860,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -972,9 +1007,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1101,6 +1133,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,27 +1464,28 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>57</v>
@@ -1425,7 +1494,7 @@
         <v>58</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>59</v>
@@ -1434,49 +1503,55 @@
         <v>60</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="P1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="Q1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1490,61 +1565,67 @@
         <v>34</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="P2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="45" t="s">
+      <c r="Q2" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1555,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>9</v>
@@ -1573,46 +1654,52 @@
         <v>9</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="O3" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>8</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="T3" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="U3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="42" t="s">
+      <c r="V3" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1620,7 +1707,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>9</v>
@@ -1628,7 +1715,7 @@
       <c r="E4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="29" t="s">
@@ -1641,46 +1728,52 @@
         <v>9</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="P4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="Q4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="R4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="S4" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="T4" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="58" t="s">
+      <c r="U4" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" s="33" t="s">
+      <c r="V4" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="X4" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1709,46 +1802,52 @@
         <v>9</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="P5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="Q5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="R5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="R5" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="S5" s="58" t="s">
+      <c r="S5" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="X5" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1777,43 +1876,49 @@
         <v>9</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="P6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="Q6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="R6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="S6" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="58" t="s">
+      <c r="T6" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="51" t="s">
+      <c r="V6" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="X6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1842,104 +1947,110 @@
         <v>51</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="30" t="s">
+      <c r="O7" s="18"/>
+      <c r="P7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="S7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="T7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="U7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="U7" s="30" t="s">
+      <c r="V7" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="60" t="s">
+      <c r="X7" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>133</v>
+      <c r="G8" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="U8" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="V8" s="64"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="R8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="V8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="W8" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X8" s="63"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1948,54 +2059,56 @@
       <c r="D9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="64" t="s">
+      <c r="F9" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="L9" s="63"/>
+      <c r="M9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="N9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="O9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="S9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="T9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="64"/>
-      <c r="T9" s="67" t="s">
+      <c r="U9" s="63"/>
+      <c r="V9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="67" t="s">
+      <c r="W9" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="67" t="s">
+      <c r="X9" s="66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2023,36 +2136,38 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="O10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="64" t="s">
-        <v>13</v>
-      </c>
+      <c r="P10" s="63"/>
       <c r="Q10" s="63" t="s">
         <v>13</v>
       </c>
       <c r="R10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="53"/>
-      <c r="U10" t="s">
+      <c r="T10" s="62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U10" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="52"/>
+      <c r="W10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2060,28 +2175,28 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="64"/>
-      <c r="L11" s="64" t="s">
+      <c r="F11" s="63"/>
+      <c r="N11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="O11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53" t="s">
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -2090,45 +2205,47 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
+    <brk id="13" max="11" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -2138,10 +2255,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,845 +2268,1140 @@
     <col min="5" max="5" width="21.7109375" style="26" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="26"/>
     <col min="7" max="9" width="18.28515625" style="4"/>
-    <col min="10" max="11" width="18.28515625" style="83"/>
+    <col min="10" max="11" width="18.28515625" style="82"/>
     <col min="12" max="12" width="18.28515625" style="26"/>
-    <col min="13" max="16384" width="18.28515625" style="4"/>
+    <col min="13" max="14" width="18.28515625" style="95"/>
+    <col min="15" max="16384" width="18.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="82" t="s">
-        <v>127</v>
+      <c r="I1" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>122</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="M1" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="78">
         <v>43727</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="70">
         <v>43728</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70">
         <v>43697</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83">
+      <c r="H2" s="72"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="82">
         <v>11</v>
       </c>
       <c r="L2" s="26">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="M2" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N2" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="78">
         <v>43727</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <v>43728</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70">
         <v>43677</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="83">
+      <c r="H3" s="72"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="82">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="M3" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N3" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <v>43727</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="70">
         <v>43728</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <v>43687</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="70">
         <v>43678</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="73" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="83">
+      <c r="I4" s="80"/>
+      <c r="J4" s="82">
         <v>10</v>
+      </c>
+      <c r="K4" s="82">
+        <v>22</v>
       </c>
       <c r="L4" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="M4" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N4" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <v>43727</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="70">
         <v>43728</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70">
         <v>43687</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="73" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="83">
+      <c r="H5" s="72"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="82">
         <v>14</v>
       </c>
       <c r="L5" s="26">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="79">
+      <c r="M5" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N5" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="78">
         <v>43727</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <v>43728</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70">
         <v>43687</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="83">
+      <c r="F6" s="70"/>
+      <c r="G6" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="82">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="M6" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N6" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="77">
         <v>43696</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <v>43697</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70">
         <v>43678</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="70"/>
+      <c r="G7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83">
+      <c r="H7" s="72"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="82">
         <v>22</v>
       </c>
       <c r="L7" s="26">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="M7" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N7" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C8" s="71">
+      <c r="B8" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="70">
         <v>43557</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70">
         <v>43687</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="73" t="s">
+      <c r="F8" s="70"/>
+      <c r="G8" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="83">
+      <c r="H8" s="72"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="82">
         <v>1</v>
       </c>
       <c r="L8" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="M8" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N8" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C9" s="70">
+        <v>43557</v>
+      </c>
+      <c r="D9" s="70">
+        <v>43558</v>
+      </c>
+      <c r="E9" s="70">
+        <v>43617</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="82">
+        <v>701</v>
+      </c>
+      <c r="K9" s="82">
+        <v>263</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N9" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C10" s="70">
+        <v>43557</v>
+      </c>
+      <c r="D10" s="70">
+        <v>43558</v>
+      </c>
+      <c r="E10" s="70">
+        <v>43687</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="80"/>
+      <c r="J10" s="82">
+        <v>1</v>
+      </c>
+      <c r="K10" s="82">
+        <v>968</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N10" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C11" s="70">
+        <v>43557</v>
+      </c>
+      <c r="D11" s="70">
+        <v>43558</v>
+      </c>
+      <c r="E11" s="70">
+        <v>43687</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="80"/>
+      <c r="J11" s="82">
+        <v>1</v>
+      </c>
+      <c r="K11" s="82">
+        <v>968</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N11" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C12" s="70">
+        <v>43557</v>
+      </c>
+      <c r="D12" s="70">
+        <v>43558</v>
+      </c>
+      <c r="E12" s="70">
+        <v>43687</v>
+      </c>
+      <c r="F12" s="70">
+        <v>43723</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="80"/>
+      <c r="J12" s="82">
+        <v>1</v>
+      </c>
+      <c r="K12" s="82">
+        <v>963</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N12" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C13" s="70">
+        <v>43557</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70">
+        <v>43678</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C9" s="71">
-        <v>43557</v>
-      </c>
-      <c r="D9" s="71">
-        <v>43558</v>
-      </c>
-      <c r="E9" s="71">
-        <v>43617</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="83">
-        <v>701</v>
-      </c>
-      <c r="K9" s="83">
-        <v>263</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C10" s="71">
-        <v>43557</v>
-      </c>
-      <c r="D10" s="71">
-        <v>43558</v>
-      </c>
-      <c r="E10" s="71">
-        <v>43687</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="81"/>
-      <c r="J10" s="83">
-        <v>1</v>
-      </c>
-      <c r="K10" s="83">
-        <v>968</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C11" s="71">
-        <v>43557</v>
-      </c>
-      <c r="D11" s="71">
-        <v>43558</v>
-      </c>
-      <c r="E11" s="71">
-        <v>43687</v>
-      </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="83">
-        <v>1</v>
-      </c>
-      <c r="K11" s="83">
-        <v>968</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C12" s="71">
-        <v>43557</v>
-      </c>
-      <c r="D12" s="71">
-        <v>43558</v>
-      </c>
-      <c r="E12" s="71">
-        <v>43687</v>
-      </c>
-      <c r="F12" s="71">
-        <v>43723</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="83">
-        <v>1</v>
-      </c>
-      <c r="K12" s="83">
-        <v>963</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C13" s="71">
-        <v>43557</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71">
-        <v>43678</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81">
+      <c r="H13" s="72"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80">
         <v>2</v>
       </c>
-      <c r="K13" s="81"/>
+      <c r="K13" s="80"/>
       <c r="L13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C14" s="71">
+      <c r="M13" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N13" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C14" s="70">
         <v>43557</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <v>43558</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>43678</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="70">
         <v>43723</v>
       </c>
-      <c r="G14" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="83">
+      <c r="G14" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="80"/>
+      <c r="J14" s="82">
         <v>2</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="82">
         <v>963</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C15" s="71">
+        <v>78</v>
+      </c>
+      <c r="M14" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N14" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C15" s="70">
         <v>43557</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="70">
         <v>43558</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <v>43678</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="73" t="s">
+      <c r="F15" s="70"/>
+      <c r="G15" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="83">
+      <c r="I15" s="80"/>
+      <c r="J15" s="82">
         <v>1</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="82">
         <v>101</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N15" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71">
+      <c r="B16" s="73"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70">
         <v>43678</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="83">
+      <c r="H16" s="72"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="82">
         <v>101</v>
       </c>
       <c r="L16" s="26">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="M16" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N16" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C17" s="71">
+      <c r="B17" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C17" s="70">
         <v>43557</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70">
         <v>43661</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="73" t="s">
+      <c r="F17" s="70"/>
+      <c r="G17" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="83">
+      <c r="H17" s="72"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="82">
         <v>151</v>
       </c>
       <c r="L17" s="26">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="M17" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N17" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="70">
         <v>43586</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="70">
         <v>43590</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71">
+      <c r="D18" s="70"/>
+      <c r="E18" s="70">
         <v>43733</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="73" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="83">
+      <c r="H18" s="72"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="82">
         <v>216</v>
       </c>
       <c r="L18" s="26">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="M18" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N18" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C19" s="71">
+      <c r="B19" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C19" s="70">
         <v>43560</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71">
+      <c r="D19" s="70"/>
+      <c r="E19" s="70">
         <v>43733</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="73" t="s">
+      <c r="F19" s="70"/>
+      <c r="G19" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="83">
+      <c r="H19" s="72"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="82">
         <v>160</v>
       </c>
       <c r="L19" s="26">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="M19" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N19" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="70">
         <v>43577</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="70">
         <v>43580</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70">
         <v>43713</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="83">
+      <c r="H20" s="72"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="82">
         <v>30</v>
       </c>
       <c r="L20" s="26">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="M20" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N20" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="83">
+      <c r="G21" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="82">
         <v>260</v>
       </c>
       <c r="L21" s="26">
         <v>260</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="M21" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N21" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="83">
+      <c r="G22" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="82">
         <v>260</v>
       </c>
       <c r="L22" s="26">
         <v>260</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C23" s="71">
+      <c r="M22" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N22" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C23" s="70">
         <v>43557</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="74" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="83">
+      <c r="G23" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="82">
         <v>963</v>
       </c>
       <c r="L23" s="26">
         <v>963</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C24" s="71">
+      <c r="M23" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N23" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C24" s="70">
         <v>43557</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71">
+      <c r="D24" s="70"/>
+      <c r="E24" s="70">
         <v>43758</v>
       </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="83">
+      <c r="F24" s="70"/>
+      <c r="G24" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="82">
         <v>962</v>
       </c>
-      <c r="K24" s="83">
+      <c r="K24" s="82">
         <v>965</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N24" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="70">
+        <v>43586</v>
+      </c>
+      <c r="C25" s="70">
+        <v>43590</v>
+      </c>
+      <c r="D25" s="70">
+        <v>43626</v>
+      </c>
+      <c r="E25" s="70">
+        <v>43733</v>
+      </c>
+      <c r="F25" s="73"/>
+      <c r="G25" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="80"/>
+      <c r="M25" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N25" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="71">
-        <v>43586</v>
-      </c>
-      <c r="C25" s="71">
-        <v>43590</v>
-      </c>
-      <c r="D25" s="71">
-        <v>43626</v>
-      </c>
-      <c r="E25" s="71">
-        <v>43733</v>
-      </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="73" t="s">
+      <c r="B26" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C26" s="70">
+        <v>43560</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="81"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C26" s="71">
-        <v>43560</v>
-      </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="83">
+      <c r="H26" s="72"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="82">
         <v>252</v>
       </c>
       <c r="L26" s="26">
         <v>252</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74" t="s">
+      <c r="M26" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N26" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C27" s="70">
+        <v>43560</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="73" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="72"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="82">
+        <v>252</v>
+      </c>
+      <c r="M27" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N27" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="83">
+      <c r="H28" s="72"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="82">
         <v>252</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L28" s="26">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74" t="s">
+      <c r="M28" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N28" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="73" t="s">
+      <c r="F29" s="73"/>
+      <c r="G29" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="83">
-        <v>255</v>
-      </c>
-      <c r="L28" s="26">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="71">
-        <v>43556</v>
-      </c>
-      <c r="C29" s="71">
-        <v>43560</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="83">
-        <v>255</v>
+      <c r="H29" s="72"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="82">
+        <v>257</v>
       </c>
       <c r="L29" s="26">
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="M29" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N29" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C30" s="70">
+        <v>43560</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="72"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="82">
+        <v>257</v>
+      </c>
+      <c r="L30" s="26">
+        <v>255</v>
+      </c>
+      <c r="M30" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N30" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="70">
+        <v>43556</v>
+      </c>
+      <c r="C31" s="70">
+        <v>43560</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="72"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="82">
+        <v>255</v>
+      </c>
+      <c r="L31" s="26">
+        <v>255</v>
+      </c>
+      <c r="M31" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N31" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="72"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="82">
+        <v>276</v>
+      </c>
+      <c r="L32" s="26">
+        <v>252</v>
+      </c>
+      <c r="M32" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N32" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="72"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="82">
+        <v>255</v>
+      </c>
+      <c r="L33" s="26">
+        <v>255</v>
+      </c>
+      <c r="M33" s="96">
+        <v>43525</v>
+      </c>
+      <c r="N33" s="97">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3014,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3141,7 +3553,7 @@
         <v>43557</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3156,10 +3568,10 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3176,15 +3588,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="23">
         <v>43768</v>
@@ -3196,15 +3608,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="23">
         <v>43768</v>
@@ -3216,10 +3628,10 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3316,7 +3728,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -3324,7 +3736,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="23">
         <v>43556</v>
@@ -3336,7 +3748,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -3344,7 +3756,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="23">
         <v>43556</v>
@@ -3356,10 +3768,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3380,7 +3792,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -3400,7 +3812,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -3447,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,172 +3869,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="B2" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="84">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84">
+        <v>85</v>
+      </c>
+      <c r="E2" s="84">
+        <v>170</v>
+      </c>
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="85">
+      <c r="B3" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84">
+        <v>170</v>
+      </c>
+      <c r="F3" s="84">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84">
+        <v>85</v>
+      </c>
+      <c r="E4" s="84">
+        <v>170</v>
+      </c>
+      <c r="F4" s="84">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84">
+        <v>85</v>
+      </c>
+      <c r="E5" s="84">
+        <v>170</v>
+      </c>
+      <c r="F5" s="83"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84">
+        <v>85</v>
+      </c>
+      <c r="E6" s="84">
+        <v>170</v>
+      </c>
+      <c r="F6" s="83"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="84">
         <v>0</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D7" s="85">
         <v>85</v>
       </c>
-      <c r="E2" s="85">
-        <v>170</v>
-      </c>
-      <c r="F2" s="84"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85">
-        <v>170</v>
-      </c>
-      <c r="F3" s="85">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85">
+      <c r="E7" s="85"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="84">
+        <v>0</v>
+      </c>
+      <c r="D8" s="84">
         <v>85</v>
       </c>
-      <c r="E4" s="85">
-        <v>170</v>
-      </c>
-      <c r="F4" s="85">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85">
+      <c r="E8" s="85"/>
+      <c r="F8" s="83"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="84">
+        <v>0</v>
+      </c>
+      <c r="D9" s="84">
         <v>85</v>
       </c>
-      <c r="E5" s="85">
-        <v>170</v>
-      </c>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85">
+      <c r="E9" s="85"/>
+      <c r="F9" s="83"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="83">
+        <v>0</v>
+      </c>
+      <c r="D10" s="84">
         <v>85</v>
       </c>
-      <c r="E6" s="85">
-        <v>170</v>
-      </c>
-      <c r="F6" s="84"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="85">
-        <v>0</v>
-      </c>
-      <c r="D7" s="86">
-        <v>85</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="85">
-        <v>0</v>
-      </c>
-      <c r="D8" s="85">
-        <v>85</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="84"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="85">
-        <v>0</v>
-      </c>
-      <c r="D9" s="85">
-        <v>85</v>
-      </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="84"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="84">
-        <v>0</v>
-      </c>
-      <c r="D10" s="85">
-        <v>85</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="soil_climate_more" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$L$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$N$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -120,9 +120,6 @@
     <t>15/7, 20/9</t>
   </si>
   <si>
-    <t>afgkode</t>
-  </si>
-  <si>
     <t>Crop</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>701, 968</t>
   </si>
   <si>
-    <t>701, 260</t>
-  </si>
-  <si>
     <t>1, 963</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
     <t>SK1</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -357,15 +348,9 @@
     <t>Nedmuld</t>
   </si>
   <si>
-    <t>1, 968</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vårhvede GG </t>
   </si>
   <si>
-    <t>Vinterrug KG</t>
-  </si>
-  <si>
     <t>PløjesGræs</t>
   </si>
   <si>
@@ -450,12 +435,6 @@
     <t>KløvergræsVstart</t>
   </si>
   <si>
-    <t>Fertil2Date</t>
-  </si>
-  <si>
-    <t>Fertil1Date</t>
-  </si>
-  <si>
     <t>pig_slurry</t>
   </si>
   <si>
@@ -463,6 +442,21 @@
   </si>
   <si>
     <t>manure</t>
+  </si>
+  <si>
+    <t>Vinterrug PE</t>
+  </si>
+  <si>
+    <t>FDate1</t>
+  </si>
+  <si>
+    <t>FDate2</t>
+  </si>
+  <si>
+    <t>FDate3</t>
+  </si>
+  <si>
+    <t>FDate4</t>
   </si>
 </sst>
 </file>
@@ -589,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -871,11 +865,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -947,9 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1036,9 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -1158,17 +1159,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1480,7 @@
     <col min="7" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1474,643 +1488,616 @@
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="J1" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="41" t="s">
+      <c r="O1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>90</v>
-      </c>
       <c r="S1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="B2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="42" t="s">
+      <c r="M2" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="88" t="s">
+      <c r="Q2" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="T2" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="W2" s="56" t="s">
+      <c r="S2" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="33" t="s">
+      <c r="M3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="90" t="s">
+      <c r="S3" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="42" t="s">
+      <c r="V3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="B4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="33" t="s">
+      <c r="M4" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="90" t="s">
+      <c r="R4" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="55" t="s">
-        <v>104</v>
+      <c r="V4" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="48" t="s">
+      <c r="O5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="U5" s="57" t="s">
+      <c r="S5" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="33" t="s">
+      <c r="V5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="W5" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="T6" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="34" t="s">
+      <c r="V6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="W6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="B7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>51</v>
+      <c r="H7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="30" t="s">
+      <c r="L7" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="18"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="58" t="s">
+      <c r="U7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="X7" s="59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>128</v>
+      <c r="G8" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>123</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="V8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="W8" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="X8" s="63"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="V8" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="61"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="E9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="F9" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="63" t="s">
+      <c r="H9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="63" t="s">
+      <c r="I9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="66" t="s">
+      <c r="J9" s="61"/>
+      <c r="K9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="66" t="s">
+      <c r="L9" s="61"/>
+      <c r="M9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" t="s">
@@ -2138,36 +2125,38 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63" t="s">
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="63" t="s">
+      <c r="R10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="62" t="s">
+      <c r="S10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="62" t="s">
+      <c r="T10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="U10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="52"/>
+      <c r="V10" t="s">
+        <v>13</v>
+      </c>
       <c r="W10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2175,71 +2164,70 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="63"/>
-      <c r="N11" s="63" t="s">
+      <c r="F11" s="61"/>
+      <c r="N11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52" t="s">
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2255,1153 +2243,1076 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="4" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" style="26"/>
-    <col min="5" max="5" width="21.7109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="26"/>
-    <col min="7" max="9" width="18.28515625" style="4"/>
-    <col min="10" max="11" width="18.28515625" style="82"/>
-    <col min="12" max="12" width="18.28515625" style="26"/>
-    <col min="13" max="14" width="18.28515625" style="95"/>
+    <col min="2" max="2" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="4"/>
+    <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" style="93" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="80" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="18.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="68" t="s">
+      <c r="C1" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="76">
+        <v>43727</v>
+      </c>
+      <c r="C2" s="68">
+        <v>43728</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68">
+        <v>43697</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="97"/>
+      <c r="I2" s="76">
+        <v>43525</v>
+      </c>
+      <c r="J2" s="76">
+        <v>43556</v>
+      </c>
+      <c r="K2" s="100"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="80">
+        <v>11</v>
+      </c>
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76">
+        <v>43727</v>
+      </c>
+      <c r="C3" s="68">
+        <v>43728</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68">
+        <v>43677</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="76">
+        <v>43525</v>
+      </c>
+      <c r="J3" s="76">
+        <v>43556</v>
+      </c>
+      <c r="K3" s="100"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="80">
+        <v>10</v>
+      </c>
+      <c r="O3" s="78"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="76">
+        <v>43727</v>
+      </c>
+      <c r="C4" s="68">
+        <v>43728</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="76">
+        <v>43525</v>
+      </c>
+      <c r="J4" s="76">
+        <v>43556</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="80">
+        <v>14</v>
+      </c>
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="75">
+        <v>43696</v>
+      </c>
+      <c r="C5" s="75">
+        <v>43697</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68">
+        <v>43678</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="97"/>
+      <c r="I5" s="76">
+        <v>43525</v>
+      </c>
+      <c r="J5" s="76">
+        <v>43556</v>
+      </c>
+      <c r="K5" s="100"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="80">
+        <v>22</v>
+      </c>
+      <c r="O5" s="78"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C6" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68">
+        <v>43678</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J6" s="76"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="78">
+        <v>2</v>
+      </c>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C7" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J7" s="76"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="80">
+        <v>1</v>
+      </c>
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D8" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E8" s="68">
+        <v>43617</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="I8" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J8" s="76">
+        <v>43648</v>
+      </c>
+      <c r="K8" s="100">
+        <v>43679</v>
+      </c>
+      <c r="L8" s="102"/>
+      <c r="M8" s="80">
+        <v>701</v>
+      </c>
+      <c r="N8" s="80">
+        <v>963</v>
+      </c>
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C9" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D9" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E9" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J9" s="76"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="80">
+        <v>1</v>
+      </c>
+      <c r="N9" s="80">
+        <v>968</v>
+      </c>
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C10" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D10" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E10" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="80">
+        <v>1</v>
+      </c>
+      <c r="N10" s="80">
+        <v>968</v>
+      </c>
+      <c r="O10" s="78"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C11" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D11" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E11" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F11" s="68">
+        <v>43723</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J11" s="76"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="80">
+        <v>1</v>
+      </c>
+      <c r="O11" s="78"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C12" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D12" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E12" s="68">
+        <v>43678</v>
+      </c>
+      <c r="F12" s="68">
+        <v>43723</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="76">
+        <v>43568</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="80">
         <v>2</v>
       </c>
-      <c r="B2" s="78">
+      <c r="O12" s="78"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="76">
         <v>43727</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C13" s="68">
         <v>43728</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70">
-        <v>43697</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="82">
-        <v>11</v>
-      </c>
-      <c r="L2" s="26">
-        <v>11</v>
-      </c>
-      <c r="M2" s="96">
+      <c r="D13" s="68">
+        <v>43687</v>
+      </c>
+      <c r="E13" s="68">
+        <v>43678</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="76">
         <v>43525</v>
       </c>
-      <c r="N2" s="97">
+      <c r="J13" s="76">
         <v>43556</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="K13" s="100"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="80">
         <v>10</v>
       </c>
-      <c r="B3" s="78">
+      <c r="N13" s="80">
+        <v>22</v>
+      </c>
+      <c r="O13" s="78"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="76">
         <v>43727</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C14" s="68">
         <v>43728</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70">
-        <v>43677</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="72" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68">
+        <v>43687</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="82">
-        <v>10</v>
-      </c>
-      <c r="M3" s="96">
+      <c r="H14" s="97"/>
+      <c r="I14" s="76">
         <v>43525</v>
       </c>
-      <c r="N3" s="97">
+      <c r="J14" s="76">
         <v>43556</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="78">
-        <v>43727</v>
-      </c>
-      <c r="C4" s="70">
-        <v>43728</v>
-      </c>
-      <c r="D4" s="70">
-        <v>43687</v>
-      </c>
-      <c r="E4" s="70">
+      <c r="K14" s="100"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="80">
+        <v>14</v>
+      </c>
+      <c r="O14" s="78"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C15" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D15" s="68">
+        <v>43558</v>
+      </c>
+      <c r="E15" s="68">
         <v>43678</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="72" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="82">
-        <v>10</v>
-      </c>
-      <c r="K4" s="82">
-        <v>22</v>
-      </c>
-      <c r="L4" s="26">
-        <v>10</v>
-      </c>
-      <c r="M4" s="96">
+      <c r="H15" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="76">
+        <v>43557</v>
+      </c>
+      <c r="J15" s="76">
+        <v>43556</v>
+      </c>
+      <c r="K15" s="100"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="80">
+        <v>1</v>
+      </c>
+      <c r="N15" s="80">
+        <v>101</v>
+      </c>
+      <c r="O15" s="78"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68">
+        <v>43678</v>
+      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="97"/>
+      <c r="I16" s="76">
+        <v>43556</v>
+      </c>
+      <c r="J16" s="76">
+        <v>43617</v>
+      </c>
+      <c r="K16" s="100"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="80">
+        <v>101</v>
+      </c>
+      <c r="O16" s="78"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C17" s="68">
+        <v>43557</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68">
+        <v>43661</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="I17" s="76">
+        <v>43570</v>
+      </c>
+      <c r="J17" s="76">
+        <v>43626</v>
+      </c>
+      <c r="K17" s="100"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="80">
+        <v>151</v>
+      </c>
+      <c r="O17" s="78"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="68">
+        <v>43586</v>
+      </c>
+      <c r="C18" s="68">
+        <v>43590</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68">
+        <v>43733</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="97"/>
+      <c r="I18" s="76">
+        <v>43590</v>
+      </c>
+      <c r="J18" s="76">
+        <v>43626</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="80">
+        <v>216</v>
+      </c>
+      <c r="O18" s="78"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C19" s="68">
+        <v>43560</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68">
+        <v>43733</v>
+      </c>
+      <c r="F19" s="68"/>
+      <c r="G19" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="97"/>
+      <c r="I19" s="76">
+        <v>43560</v>
+      </c>
+      <c r="J19" s="76">
+        <v>43626</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="80">
+        <v>160</v>
+      </c>
+      <c r="O19" s="78"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="68">
+        <v>43577</v>
+      </c>
+      <c r="C20" s="68">
+        <v>43580</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68">
+        <v>43713</v>
+      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="97"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="80">
+        <v>30</v>
+      </c>
+      <c r="O20" s="78"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="97"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="80">
+        <v>260</v>
+      </c>
+      <c r="O21" s="78"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="97"/>
+      <c r="I22" s="99">
         <v>43525</v>
       </c>
-      <c r="N4" s="97">
+      <c r="J22" s="99">
+        <v>43622</v>
+      </c>
+      <c r="K22" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L22" s="100">
+        <v>43698</v>
+      </c>
+      <c r="M22" s="80">
+        <v>260</v>
+      </c>
+      <c r="O22" s="78"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="68">
+        <v>43586</v>
+      </c>
+      <c r="C23" s="68">
+        <v>43590</v>
+      </c>
+      <c r="D23" s="68">
+        <v>43626</v>
+      </c>
+      <c r="E23" s="68">
+        <v>43733</v>
+      </c>
+      <c r="F23" s="71"/>
+      <c r="G23" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="76">
+        <v>43590</v>
+      </c>
+      <c r="J23" s="76">
+        <v>43626</v>
+      </c>
+      <c r="K23" s="100"/>
+      <c r="L23" s="102"/>
+      <c r="O23" s="78"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="68">
         <v>43556</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="78">
-        <v>43727</v>
-      </c>
-      <c r="C5" s="70">
-        <v>43728</v>
-      </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="82">
-        <v>14</v>
-      </c>
-      <c r="L5" s="26">
-        <v>14</v>
-      </c>
-      <c r="M5" s="96">
+      <c r="C24" s="68">
+        <v>43560</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="71"/>
+      <c r="G24" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="97"/>
+      <c r="I24" s="76">
+        <v>43556</v>
+      </c>
+      <c r="J24" s="76">
+        <v>43622</v>
+      </c>
+      <c r="K24" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L24" s="102">
+        <v>43698</v>
+      </c>
+      <c r="M24" s="80">
+        <v>252</v>
+      </c>
+      <c r="O24" s="78"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C25" s="68">
+        <v>43560</v>
+      </c>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="97"/>
+      <c r="I25" s="76">
+        <v>43570</v>
+      </c>
+      <c r="J25" s="76">
+        <v>43622</v>
+      </c>
+      <c r="K25" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L25" s="102">
+        <v>43698</v>
+      </c>
+      <c r="M25" s="80">
+        <v>252</v>
+      </c>
+      <c r="O25" s="78"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="97"/>
+      <c r="I26" s="76">
+        <v>43586</v>
+      </c>
+      <c r="J26" s="76">
+        <v>43662</v>
+      </c>
+      <c r="K26" s="100"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="80">
+        <v>252</v>
+      </c>
+      <c r="O26" s="78"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="97"/>
+      <c r="I27" s="99">
         <v>43525</v>
       </c>
-      <c r="N5" s="97">
+      <c r="J27" s="99">
+        <v>43622</v>
+      </c>
+      <c r="K27" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L27" s="100">
+        <v>43698</v>
+      </c>
+      <c r="M27" s="80">
+        <v>257</v>
+      </c>
+      <c r="O27" s="78"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="68">
         <v>43556</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="78">
-        <v>43727</v>
-      </c>
-      <c r="C6" s="70">
-        <v>43728</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="82">
-        <v>14</v>
-      </c>
-      <c r="M6" s="96">
+      <c r="C28" s="68">
+        <v>43560</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="97"/>
+      <c r="I28" s="76">
+        <v>43570</v>
+      </c>
+      <c r="J28" s="99">
+        <v>43622</v>
+      </c>
+      <c r="K28" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L28" s="100">
+        <v>43698</v>
+      </c>
+      <c r="M28" s="80">
+        <v>257</v>
+      </c>
+      <c r="O28" s="78"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="68">
+        <v>43556</v>
+      </c>
+      <c r="C29" s="68">
+        <v>43560</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="97"/>
+      <c r="I29" s="76">
+        <v>43570</v>
+      </c>
+      <c r="J29" s="99">
+        <v>43622</v>
+      </c>
+      <c r="K29" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L29" s="100">
+        <v>43698</v>
+      </c>
+      <c r="M29" s="80">
+        <v>255</v>
+      </c>
+      <c r="O29" s="78"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="97"/>
+      <c r="I30" s="76">
+        <v>43586</v>
+      </c>
+      <c r="J30" s="76">
+        <v>43662</v>
+      </c>
+      <c r="K30" s="100"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="80">
+        <v>276</v>
+      </c>
+      <c r="O30" s="78"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="97"/>
+      <c r="I31" s="99">
         <v>43525</v>
       </c>
-      <c r="N6" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="77">
-        <v>43696</v>
-      </c>
-      <c r="C7" s="77">
-        <v>43697</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70">
-        <v>43678</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="82">
-        <v>22</v>
-      </c>
-      <c r="L7" s="26">
-        <v>22</v>
-      </c>
-      <c r="M7" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N7" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C8" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="82">
-        <v>1</v>
-      </c>
-      <c r="L8" s="26">
-        <v>1</v>
-      </c>
-      <c r="M8" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N8" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C9" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D9" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E9" s="70">
-        <v>43617</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="82">
-        <v>701</v>
-      </c>
-      <c r="K9" s="82">
-        <v>263</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N9" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C10" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D10" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E10" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="82">
-        <v>1</v>
-      </c>
-      <c r="K10" s="82">
-        <v>968</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N10" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C11" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D11" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E11" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="82">
-        <v>1</v>
-      </c>
-      <c r="K11" s="82">
-        <v>968</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N11" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C12" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D12" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E12" s="70">
-        <v>43687</v>
-      </c>
-      <c r="F12" s="70">
-        <v>43723</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="82">
-        <v>1</v>
-      </c>
-      <c r="K12" s="82">
-        <v>963</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N12" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C13" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70">
-        <v>43678</v>
-      </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80">
-        <v>2</v>
-      </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="4">
-        <v>2</v>
-      </c>
-      <c r="M13" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N13" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C14" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D14" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E14" s="70">
-        <v>43678</v>
-      </c>
-      <c r="F14" s="70">
-        <v>43723</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="82">
-        <v>2</v>
-      </c>
-      <c r="K14" s="82">
-        <v>963</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N14" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C15" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D15" s="70">
-        <v>43558</v>
-      </c>
-      <c r="E15" s="70">
-        <v>43678</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="82">
-        <v>1</v>
-      </c>
-      <c r="K15" s="82">
-        <v>101</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N15" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70">
-        <v>43678</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="82">
-        <v>101</v>
-      </c>
-      <c r="L16" s="26">
-        <v>101</v>
-      </c>
-      <c r="M16" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N16" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C17" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70">
-        <v>43661</v>
-      </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="82">
-        <v>151</v>
-      </c>
-      <c r="L17" s="26">
-        <v>151</v>
-      </c>
-      <c r="M17" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N17" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="70">
-        <v>43586</v>
-      </c>
-      <c r="C18" s="70">
-        <v>43590</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70">
-        <v>43733</v>
-      </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="82">
-        <v>216</v>
-      </c>
-      <c r="L18" s="26">
-        <v>216</v>
-      </c>
-      <c r="M18" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N18" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C19" s="70">
-        <v>43560</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70">
-        <v>43733</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="82">
-        <v>160</v>
-      </c>
-      <c r="L19" s="26">
-        <v>160</v>
-      </c>
-      <c r="M19" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N19" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="70">
-        <v>43577</v>
-      </c>
-      <c r="C20" s="70">
-        <v>43580</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70">
-        <v>43713</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="82">
-        <v>30</v>
-      </c>
-      <c r="L20" s="26">
-        <v>30</v>
-      </c>
-      <c r="M20" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N20" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="82">
-        <v>260</v>
-      </c>
-      <c r="L21" s="26">
-        <v>260</v>
-      </c>
-      <c r="M21" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N21" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="82">
-        <v>260</v>
-      </c>
-      <c r="L22" s="26">
-        <v>260</v>
-      </c>
-      <c r="M22" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N22" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C23" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="82">
-        <v>963</v>
-      </c>
-      <c r="L23" s="26">
-        <v>963</v>
-      </c>
-      <c r="M23" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N23" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C24" s="70">
-        <v>43557</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70">
-        <v>43758</v>
-      </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="82">
-        <v>962</v>
-      </c>
-      <c r="K24" s="82">
-        <v>965</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M24" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N24" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="70">
-        <v>43586</v>
-      </c>
-      <c r="C25" s="70">
-        <v>43590</v>
-      </c>
-      <c r="D25" s="70">
-        <v>43626</v>
-      </c>
-      <c r="E25" s="70">
-        <v>43733</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="80"/>
-      <c r="M25" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N25" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C26" s="70">
-        <v>43560</v>
-      </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="82">
-        <v>252</v>
-      </c>
-      <c r="L26" s="26">
-        <v>252</v>
-      </c>
-      <c r="M26" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N26" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C27" s="70">
-        <v>43560</v>
-      </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="82">
-        <v>252</v>
-      </c>
-      <c r="M27" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N27" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="82">
-        <v>252</v>
-      </c>
-      <c r="L28" s="26">
-        <v>252</v>
-      </c>
-      <c r="M28" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N28" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="82">
-        <v>257</v>
-      </c>
-      <c r="L29" s="26">
+      <c r="J31" s="99">
+        <v>43622</v>
+      </c>
+      <c r="K31" s="100">
+        <v>43662</v>
+      </c>
+      <c r="L31" s="100">
+        <v>43698</v>
+      </c>
+      <c r="M31" s="80">
         <v>255</v>
       </c>
-      <c r="M29" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N29" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C30" s="70">
-        <v>43560</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="72"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="82">
-        <v>257</v>
-      </c>
-      <c r="L30" s="26">
-        <v>255</v>
-      </c>
-      <c r="M30" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N30" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="70">
-        <v>43556</v>
-      </c>
-      <c r="C31" s="70">
-        <v>43560</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="82">
-        <v>255</v>
-      </c>
-      <c r="L31" s="26">
-        <v>255</v>
-      </c>
-      <c r="M31" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N31" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="72"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="82">
-        <v>276</v>
-      </c>
-      <c r="L32" s="26">
-        <v>252</v>
-      </c>
-      <c r="M32" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N32" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="72"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="82">
-        <v>255</v>
-      </c>
-      <c r="L33" s="26">
-        <v>255</v>
-      </c>
-      <c r="M33" s="96">
-        <v>43525</v>
-      </c>
-      <c r="N33" s="97">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="78"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="99"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3426,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3436,23 +3347,23 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -3480,7 +3391,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="23">
         <v>43739</v>
@@ -3553,14 +3464,14 @@
         <v>43557</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="23">
         <v>43768</v>
@@ -3568,15 +3479,15 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="23">
         <v>43768</v>
@@ -3588,15 +3499,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="23">
         <v>43768</v>
@@ -3608,15 +3519,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="23">
         <v>43768</v>
@@ -3628,15 +3539,15 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="23"/>
@@ -3644,7 +3555,7 @@
         <v>43678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7">
         <v>101</v>
@@ -3668,7 +3579,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="23">
         <v>43768</v>
@@ -3728,7 +3639,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -3736,7 +3647,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="23">
         <v>43556</v>
@@ -3748,7 +3659,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -3756,7 +3667,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="23">
         <v>43556</v>
@@ -3768,10 +3679,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,13 +3697,13 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -3804,7 +3715,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7">
         <v>252</v>
@@ -3812,7 +3723,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -3824,7 +3735,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7">
         <v>255</v>
@@ -3832,7 +3743,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="23">
         <v>43556</v>
@@ -3844,7 +3755,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7">
         <v>255</v>
@@ -3859,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3869,172 +3780,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="87" t="s">
+      <c r="B1" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="B2" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="82">
+        <v>0</v>
+      </c>
+      <c r="D2" s="82">
+        <v>85</v>
+      </c>
+      <c r="E2" s="82">
+        <v>170</v>
+      </c>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="84">
+      <c r="B3" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82">
+        <v>170</v>
+      </c>
+      <c r="F3" s="82">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82">
+        <v>85</v>
+      </c>
+      <c r="E4" s="82">
+        <v>170</v>
+      </c>
+      <c r="F4" s="82">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82">
+        <v>85</v>
+      </c>
+      <c r="E5" s="82">
+        <v>170</v>
+      </c>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82">
+        <v>85</v>
+      </c>
+      <c r="E6" s="82">
+        <v>170</v>
+      </c>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="82">
         <v>0</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D7" s="83">
         <v>85</v>
       </c>
-      <c r="E2" s="84">
-        <v>170</v>
-      </c>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84">
-        <v>170</v>
-      </c>
-      <c r="F3" s="84">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84">
+      <c r="E7" s="83"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="82">
+        <v>0</v>
+      </c>
+      <c r="D8" s="82">
         <v>85</v>
       </c>
-      <c r="E4" s="84">
-        <v>170</v>
-      </c>
-      <c r="F4" s="84">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84">
+      <c r="E8" s="83"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="82">
+        <v>0</v>
+      </c>
+      <c r="D9" s="82">
         <v>85</v>
       </c>
-      <c r="E5" s="84">
-        <v>170</v>
-      </c>
-      <c r="F5" s="83"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84">
+      <c r="E9" s="83"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0</v>
+      </c>
+      <c r="D10" s="82">
         <v>85</v>
       </c>
-      <c r="E6" s="84">
-        <v>170</v>
-      </c>
-      <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="85">
-        <v>85</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="84">
-        <v>0</v>
-      </c>
-      <c r="D8" s="84">
-        <v>85</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="83"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="84">
-        <v>0</v>
-      </c>
-      <c r="D9" s="84">
-        <v>85</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="83">
-        <v>0</v>
-      </c>
-      <c r="D10" s="84">
-        <v>85</v>
-      </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2245,8 +2245,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2259,7 @@
     <col min="7" max="7" width="18.28515625" style="4"/>
     <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" style="93" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="80" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="18.28515625" style="4"/>
   </cols>
@@ -2430,7 +2430,7 @@
         <v>43525</v>
       </c>
       <c r="J5" s="76">
-        <v>43556</v>
+        <v>43570</v>
       </c>
       <c r="K5" s="100"/>
       <c r="L5" s="102"/>
@@ -2942,7 +2942,9 @@
         <v>45</v>
       </c>
       <c r="H20" s="97"/>
-      <c r="I20" s="76"/>
+      <c r="I20" s="76">
+        <v>43586</v>
+      </c>
       <c r="J20" s="76"/>
       <c r="K20" s="100"/>
       <c r="L20" s="102"/>
@@ -2965,7 +2967,9 @@
         <v>64</v>
       </c>
       <c r="H21" s="97"/>
-      <c r="I21" s="76"/>
+      <c r="I21" s="76">
+        <v>43586</v>
+      </c>
       <c r="J21" s="76"/>
       <c r="K21" s="100"/>
       <c r="L21" s="102"/>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -141,18 +141,12 @@
     <t>Kløvergræs GG</t>
   </si>
   <si>
-    <t>Winter Wheat</t>
-  </si>
-  <si>
     <t>Frøgræs, 2+3yr</t>
   </si>
   <si>
     <t>Vårbyg GG</t>
   </si>
   <si>
-    <t>Winter Barley</t>
-  </si>
-  <si>
     <t>Rye</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>SB</t>
   </si>
   <si>
-    <t>Potato</t>
-  </si>
-  <si>
     <t>Fodder Beet</t>
   </si>
   <si>
@@ -435,15 +426,6 @@
     <t>KløvergræsVstart</t>
   </si>
   <si>
-    <t>pig_slurry</t>
-  </si>
-  <si>
-    <t>cattle_slurry</t>
-  </si>
-  <si>
-    <t>manure</t>
-  </si>
-  <si>
     <t>Vinterrug PE</t>
   </si>
   <si>
@@ -457,6 +439,27 @@
   </si>
   <si>
     <t>FDate4</t>
+  </si>
+  <si>
+    <t>Winter Rape PA</t>
+  </si>
+  <si>
+    <t>Winter Wheat JG</t>
+  </si>
+  <si>
+    <t>Rug</t>
+  </si>
+  <si>
+    <t>Potato; Sava_Figaro</t>
+  </si>
+  <si>
+    <t>p_slurry</t>
+  </si>
+  <si>
+    <t>c_slurry</t>
+  </si>
+  <si>
+    <t>c_manure</t>
   </si>
 </sst>
 </file>
@@ -1496,70 +1499,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="O1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="40" t="s">
+      <c r="P1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="S1" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U1" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V1" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W1" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1576,31 +1579,31 @@
         <v>33</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K2" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="35" t="s">
         <v>130</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>133</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>3</v>
@@ -1612,25 +1615,25 @@
         <v>2</v>
       </c>
       <c r="Q2" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R2" s="86" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="90" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T2" s="90" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U2" s="87" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" s="54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W2" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1644,7 +1647,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>9</v>
@@ -1662,22 +1665,22 @@
         <v>9</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>2</v>
@@ -1712,16 +1715,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>9</v>
@@ -1733,22 +1736,22 @@
         <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>2</v>
@@ -1757,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S4" s="90" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T4" s="90" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U4" s="88" t="s">
         <v>1</v>
@@ -1795,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>9</v>
@@ -1804,22 +1807,22 @@
         <v>9</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P5" s="47" t="s">
         <v>2</v>
@@ -1831,10 +1834,10 @@
         <v>5</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U5" s="55" t="s">
         <v>1</v>
@@ -1875,16 +1878,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N6" s="50" t="s">
         <v>2</v>
@@ -1902,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="T6" s="63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U6" s="55" t="s">
         <v>1</v>
@@ -1911,7 +1914,7 @@
         <v>34</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1922,10 +1925,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>1</v>
@@ -1937,18 +1940,18 @@
         <v>1</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>10</v>
@@ -1958,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>7</v>
@@ -1973,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>34</v>
@@ -1984,59 +1987,59 @@
         <v>11</v>
       </c>
       <c r="B8" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="F8" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>123</v>
-      </c>
       <c r="H8" s="61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W8" s="61"/>
     </row>
@@ -2047,57 +2050,57 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T9" s="61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U9" s="61"/>
       <c r="V9" s="64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="W9" s="64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" t="s">
@@ -2156,7 +2159,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2246,7 +2249,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,43 +2275,43 @@
         <v>30</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="96" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I1" s="98" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J1" s="98" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K1" s="98" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L1" s="101" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M1" s="79" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O1" s="77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2327,7 +2330,7 @@
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="70" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="76">
@@ -2359,7 +2362,7 @@
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="70" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="76">
@@ -2391,7 +2394,7 @@
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="70" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="H4" s="97"/>
       <c r="I4" s="76">
@@ -2423,7 +2426,7 @@
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="70" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="H5" s="97"/>
       <c r="I5" s="76">
@@ -2441,7 +2444,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="68">
         <v>43556</v>
@@ -2455,7 +2458,7 @@
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" s="97"/>
       <c r="I6" s="76">
@@ -2486,7 +2489,7 @@
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7" s="97"/>
       <c r="I7" s="76">
@@ -2502,7 +2505,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="68">
         <v>43556</v>
@@ -2520,10 +2523,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I8" s="76">
         <v>43568</v>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="68">
         <v>43556</v>
@@ -2561,10 +2564,10 @@
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="76">
         <v>43568</v>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="68">
         <v>43556</v>
@@ -2598,10 +2601,10 @@
       </c>
       <c r="F10" s="68"/>
       <c r="G10" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" s="76">
         <v>43568</v>
@@ -2619,7 +2622,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="68">
         <v>43556</v>
@@ -2637,10 +2640,10 @@
         <v>43723</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="76">
         <v>43568</v>
@@ -2655,7 +2658,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="68">
         <v>43556</v>
@@ -2673,10 +2676,10 @@
         <v>43723</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" s="97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12" s="76">
         <v>43568</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="76">
         <v>43727</v>
@@ -2707,10 +2710,10 @@
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="97" t="s">
         <v>39</v>
-      </c>
-      <c r="H13" s="97" t="s">
-        <v>41</v>
       </c>
       <c r="I13" s="76">
         <v>43525</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B14" s="76">
         <v>43727</v>
@@ -2744,7 +2747,7 @@
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="97"/>
       <c r="I14" s="76">
@@ -2762,7 +2765,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="68">
         <v>43556</v>
@@ -2778,10 +2781,10 @@
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I15" s="76">
         <v>43557</v>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="97"/>
       <c r="I16" s="76">
@@ -2843,7 +2846,7 @@
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="70" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H17" s="97"/>
       <c r="I17" s="76">
@@ -2907,7 +2910,7 @@
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" s="97"/>
       <c r="I19" s="76">
@@ -2939,7 +2942,7 @@
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H20" s="97"/>
       <c r="I20" s="76">
@@ -2964,7 +2967,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H21" s="97"/>
       <c r="I21" s="76">
@@ -2989,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H22" s="97"/>
       <c r="I22" s="99">
@@ -3011,7 +3014,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="68">
         <v>43586</v>
@@ -3030,7 +3033,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="97" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23" s="76">
         <v>43590</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B24" s="68">
         <v>43556</v>
@@ -3058,7 +3061,7 @@
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="76">
@@ -3080,7 +3083,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B25" s="68">
         <v>43556</v>
@@ -3094,7 +3097,7 @@
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H25" s="97"/>
       <c r="I25" s="76">
@@ -3116,7 +3119,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
@@ -3126,7 +3129,7 @@
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26" s="97"/>
       <c r="I26" s="76">
@@ -3144,7 +3147,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
@@ -3154,7 +3157,7 @@
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="97"/>
       <c r="I27" s="99">
@@ -3176,7 +3179,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="68">
         <v>43556</v>
@@ -3190,7 +3193,7 @@
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="97"/>
       <c r="I28" s="76">
@@ -3212,7 +3215,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B29" s="68">
         <v>43556</v>
@@ -3226,7 +3229,7 @@
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H29" s="97"/>
       <c r="I29" s="76">
@@ -3248,7 +3251,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -3258,7 +3261,7 @@
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H30" s="97"/>
       <c r="I30" s="76">
@@ -3276,7 +3279,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
@@ -3286,7 +3289,7 @@
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H31" s="97"/>
       <c r="I31" s="99">
@@ -3341,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -3395,7 +3398,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="23">
         <v>43739</v>
@@ -3468,14 +3471,14 @@
         <v>43557</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="23">
         <v>43768</v>
@@ -3483,15 +3486,15 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="23">
         <v>43768</v>
@@ -3503,15 +3506,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="23">
         <v>43768</v>
@@ -3523,15 +3526,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" s="23">
         <v>43768</v>
@@ -3543,15 +3546,15 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="23"/>
@@ -3559,7 +3562,7 @@
         <v>43678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7">
         <v>101</v>
@@ -3643,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="23">
         <v>43556</v>
@@ -3663,7 +3666,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="23">
         <v>43556</v>
@@ -3683,10 +3686,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3701,13 +3704,13 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -3719,7 +3722,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7">
         <v>252</v>
@@ -3727,7 +3730,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -3739,7 +3742,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7">
         <v>255</v>
@@ -3747,7 +3750,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="23">
         <v>43556</v>
@@ -3759,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25" s="7">
         <v>255</v>
@@ -3775,7 +3778,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,27 +3791,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C2" s="82">
         <v>0</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="81"/>
@@ -3839,10 +3842,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="82">
@@ -3857,10 +3860,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C5" s="81"/>
       <c r="D5" s="82">
@@ -3873,10 +3876,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="82">
@@ -3889,10 +3892,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C7" s="82">
         <v>0</v>
@@ -3905,10 +3908,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C8" s="82">
         <v>0</v>
@@ -3921,10 +3924,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C9" s="82">
         <v>0</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C10" s="81">
         <v>0</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -453,13 +453,16 @@
     <t>Potato; Sava_Figaro</t>
   </si>
   <si>
-    <t>p_slurry</t>
-  </si>
-  <si>
-    <t>c_slurry</t>
-  </si>
-  <si>
-    <t>c_manure</t>
+    <t>stub 7 [cm]</t>
+  </si>
+  <si>
+    <t>kvaeg_gylle</t>
+  </si>
+  <si>
+    <t>slagtesvin_gylle</t>
+  </si>
+  <si>
+    <t>kvaeg_dybstroelse</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,8 +2251,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2347,9 @@
       <c r="M2" s="80">
         <v>11</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="78" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
@@ -3777,8 +3782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,7 +3816,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="82">
         <v>0</v>
@@ -3879,7 +3884,7 @@
         <v>122</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="82">
@@ -3911,7 +3916,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C8" s="82">
         <v>0</v>
@@ -3943,7 +3948,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="81">
         <v>0</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Sowing2</t>
   </si>
   <si>
-    <t>harvestHow</t>
-  </si>
-  <si>
     <t>GræsVstart</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>kvaeg_dybstroelse</t>
+  </si>
+  <si>
+    <t>HarvestHow</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>55</v>
@@ -1526,16 +1526,16 @@
         <v>80</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>126</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>81</v>
@@ -1600,13 +1600,13 @@
         <v>103</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>3</v>
@@ -1671,13 +1671,13 @@
         <v>64</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>65</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>47</v>
@@ -1742,13 +1742,13 @@
         <v>64</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L4" s="35" t="s">
         <v>65</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>94</v>
@@ -1813,13 +1813,13 @@
         <v>64</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>65</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>1</v>
@@ -1884,13 +1884,13 @@
         <v>64</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L6" s="35" t="s">
         <v>65</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N6" s="50" t="s">
         <v>2</v>
@@ -1917,7 +1917,7 @@
         <v>34</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
         <v>65</v>
       </c>
       <c r="M7" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>10</v>
@@ -1990,59 +1990,59 @@
         <v>11</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>122</v>
-      </c>
       <c r="G8" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W8" s="61"/>
     </row>
@@ -2059,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="61" t="s">
         <v>58</v>
@@ -2251,8 +2251,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,25 +2296,25 @@
         <v>93</v>
       </c>
       <c r="I1" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="K1" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="L1" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="101" t="s">
-        <v>135</v>
-      </c>
       <c r="M1" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O1" s="77" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="76">
@@ -2348,7 +2348,7 @@
         <v>11</v>
       </c>
       <c r="O2" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,9 @@
       <c r="M3" s="80">
         <v>10</v>
       </c>
-      <c r="O3" s="78"/>
+      <c r="O3" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
@@ -2399,7 +2401,7 @@
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="97"/>
       <c r="I4" s="76">
@@ -2413,7 +2415,9 @@
       <c r="M4" s="80">
         <v>14</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
@@ -2431,7 +2435,7 @@
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="97"/>
       <c r="I5" s="76">
@@ -2445,7 +2449,9 @@
       <c r="M5" s="80">
         <v>22</v>
       </c>
-      <c r="O5" s="78"/>
+      <c r="O5" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
@@ -2476,7 +2482,9 @@
         <v>2</v>
       </c>
       <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
+      <c r="O6" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
@@ -2506,7 +2514,9 @@
       <c r="M7" s="80">
         <v>1</v>
       </c>
-      <c r="O7" s="78"/>
+      <c r="O7" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
@@ -2549,7 +2559,9 @@
       <c r="N8" s="80">
         <v>963</v>
       </c>
-      <c r="O8" s="78"/>
+      <c r="O8" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
@@ -2586,7 +2598,9 @@
       <c r="N9" s="80">
         <v>968</v>
       </c>
-      <c r="O9" s="78"/>
+      <c r="O9" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
@@ -2623,7 +2637,9 @@
       <c r="N10" s="80">
         <v>968</v>
       </c>
-      <c r="O10" s="78"/>
+      <c r="O10" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
@@ -2659,7 +2675,9 @@
       <c r="M11" s="80">
         <v>1</v>
       </c>
-      <c r="O11" s="78"/>
+      <c r="O11" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
@@ -2695,7 +2713,9 @@
       <c r="M12" s="80">
         <v>2</v>
       </c>
-      <c r="O12" s="78"/>
+      <c r="O12" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
@@ -2734,11 +2754,13 @@
       <c r="N13" s="80">
         <v>22</v>
       </c>
-      <c r="O13" s="78"/>
+      <c r="O13" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="76">
         <v>43727</v>
@@ -2766,7 +2788,9 @@
       <c r="M14" s="80">
         <v>14</v>
       </c>
-      <c r="O14" s="78"/>
+      <c r="O14" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
@@ -2805,7 +2829,9 @@
       <c r="N15" s="80">
         <v>101</v>
       </c>
-      <c r="O15" s="78"/>
+      <c r="O15" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
@@ -2833,9 +2859,11 @@
       <c r="M16" s="80">
         <v>101</v>
       </c>
-      <c r="O16" s="78"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2879,7 @@
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="97"/>
       <c r="I17" s="76">
@@ -2865,7 +2893,9 @@
       <c r="M17" s="80">
         <v>151</v>
       </c>
-      <c r="O17" s="78"/>
+      <c r="O17" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
@@ -2897,7 +2927,9 @@
       <c r="M18" s="80">
         <v>216</v>
       </c>
-      <c r="O18" s="78"/>
+      <c r="O18" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
@@ -2929,7 +2961,9 @@
       <c r="M19" s="80">
         <v>160</v>
       </c>
-      <c r="O19" s="78"/>
+      <c r="O19" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
@@ -2959,7 +2993,9 @@
       <c r="M20" s="80">
         <v>30</v>
       </c>
-      <c r="O20" s="78"/>
+      <c r="O20" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
@@ -2984,7 +3020,9 @@
       <c r="M21" s="80">
         <v>260</v>
       </c>
-      <c r="O21" s="78"/>
+      <c r="O21" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -3015,7 +3053,9 @@
       <c r="M22" s="80">
         <v>260</v>
       </c>
-      <c r="O22" s="78"/>
+      <c r="O22" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
@@ -3048,11 +3088,13 @@
       </c>
       <c r="K23" s="100"/>
       <c r="L23" s="102"/>
-      <c r="O23" s="78"/>
+      <c r="O23" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="68">
         <v>43556</v>
@@ -3084,11 +3126,13 @@
       <c r="M24" s="80">
         <v>252</v>
       </c>
-      <c r="O24" s="78"/>
+      <c r="O24" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="68">
         <v>43556</v>
@@ -3120,7 +3164,9 @@
       <c r="M25" s="80">
         <v>252</v>
       </c>
-      <c r="O25" s="78"/>
+      <c r="O25" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
@@ -3148,7 +3194,9 @@
       <c r="M26" s="80">
         <v>252</v>
       </c>
-      <c r="O26" s="78"/>
+      <c r="O26" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
@@ -3180,7 +3228,9 @@
       <c r="M27" s="80">
         <v>257</v>
       </c>
-      <c r="O27" s="78"/>
+      <c r="O27" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
@@ -3216,11 +3266,13 @@
       <c r="M28" s="80">
         <v>257</v>
       </c>
-      <c r="O28" s="78"/>
+      <c r="O28" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="68">
         <v>43556</v>
@@ -3252,11 +3304,13 @@
       <c r="M29" s="80">
         <v>255</v>
       </c>
-      <c r="O29" s="78"/>
+      <c r="O29" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -3280,11 +3334,13 @@
       <c r="M30" s="80">
         <v>276</v>
       </c>
-      <c r="O30" s="78"/>
+      <c r="O30" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
@@ -3312,7 +3368,9 @@
       <c r="M31" s="80">
         <v>255</v>
       </c>
-      <c r="O31" s="78"/>
+      <c r="O31" s="78" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
@@ -3782,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,24 +3857,24 @@
         <v>59</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="82">
         <v>0</v>
@@ -3831,10 +3889,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="81"/>
@@ -3847,10 +3905,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="82">
@@ -3865,10 +3923,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="81"/>
       <c r="D5" s="82">
@@ -3881,10 +3939,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="82">
@@ -3897,10 +3955,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="82">
         <v>0</v>
@@ -3916,7 +3974,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="82">
         <v>0</v>
@@ -3932,7 +3990,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="82">
         <v>0</v>
@@ -3945,10 +4003,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="81">
         <v>0</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Potato; Sava_Figaro</t>
   </si>
   <si>
-    <t>stub 7 [cm]</t>
-  </si>
-  <si>
     <t>kvaeg_gylle</t>
   </si>
   <si>
@@ -463,6 +460,24 @@
   </si>
   <si>
     <t>HarvestHow</t>
+  </si>
+  <si>
+    <t>stub 5 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.01</t>
+  </si>
+  <si>
+    <t>sorg 0.95) (leaf 0.95) (stem 0.95) (stub 20 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.01) (stem 0.01) (stub 10 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99) (leaf 0.7) (stem 0.7) (stub 10 [cm]</t>
+  </si>
+  <si>
+    <t>sorg 0.99)(leaf 0.01)(stem 0.01)(stub 10 [cm]</t>
   </si>
 </sst>
 </file>
@@ -888,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1116,9 +1131,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1189,6 +1201,10 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,16 +1636,16 @@
       <c r="Q2" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="90" t="s">
+      <c r="S2" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="90" t="s">
+      <c r="T2" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="86" t="s">
         <v>47</v>
       </c>
       <c r="V2" s="54" t="s">
@@ -1694,13 +1710,13 @@
       <c r="R3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="91" t="s">
+      <c r="S3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="87" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="41" t="s">
@@ -1765,13 +1781,13 @@
       <c r="R4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="87" t="s">
         <v>1</v>
       </c>
       <c r="V4" s="32" t="s">
@@ -1836,7 +1852,7 @@
       <c r="R5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="88" t="s">
         <v>102</v>
       </c>
       <c r="T5" s="38" t="s">
@@ -1953,7 +1969,7 @@
       <c r="L7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="91" t="s">
         <v>127</v>
       </c>
       <c r="N7" s="29" t="s">
@@ -2251,8 +2267,8 @@
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,10 +2280,11 @@
     <col min="6" max="6" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="4"/>
     <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="18.28515625" style="4"/>
+    <col min="9" max="10" width="10.85546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="92" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="18.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2292,29 +2309,29 @@
       <c r="G1" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="77" t="s">
-        <v>143</v>
+      <c r="O1" s="103" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2335,20 +2352,20 @@
       <c r="G2" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="76">
         <v>43525</v>
       </c>
       <c r="J2" s="76">
         <v>43556</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="80">
+      <c r="K2" s="99"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="79">
         <v>11</v>
       </c>
-      <c r="O2" s="78" t="s">
-        <v>139</v>
+      <c r="O2" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2369,20 +2386,20 @@
       <c r="G3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="76">
         <v>43525</v>
       </c>
       <c r="J3" s="76">
         <v>43556</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="80">
+      <c r="K3" s="99"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="79">
         <v>10</v>
       </c>
-      <c r="O3" s="78" t="s">
-        <v>139</v>
+      <c r="O3" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2403,20 +2420,20 @@
       <c r="G4" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="76">
         <v>43525</v>
       </c>
       <c r="J4" s="76">
         <v>43556</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="80">
+      <c r="K4" s="99"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="79">
         <v>14</v>
       </c>
-      <c r="O4" s="78" t="s">
-        <v>139</v>
+      <c r="O4" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2437,20 +2454,20 @@
       <c r="G5" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="76">
         <v>43525</v>
       </c>
       <c r="J5" s="76">
         <v>43570</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="80">
+      <c r="K5" s="99"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="79">
         <v>22</v>
       </c>
-      <c r="O5" s="78" t="s">
-        <v>139</v>
+      <c r="O5" s="102" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2471,19 +2488,19 @@
       <c r="G6" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="76">
         <v>43568</v>
       </c>
       <c r="J6" s="76"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="78">
+      <c r="K6" s="99"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="77">
         <v>2</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78" t="s">
-        <v>139</v>
+      <c r="N6" s="77"/>
+      <c r="O6" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2504,18 +2521,18 @@
       <c r="G7" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="76">
         <v>43568</v>
       </c>
       <c r="J7" s="76"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="80">
+      <c r="K7" s="99"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="79">
         <v>1</v>
       </c>
-      <c r="O7" s="78" t="s">
-        <v>139</v>
+      <c r="O7" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2540,7 +2557,7 @@
       <c r="G8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="96" t="s">
         <v>90</v>
       </c>
       <c r="I8" s="76">
@@ -2549,18 +2566,18 @@
       <c r="J8" s="76">
         <v>43648</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="99">
         <v>43679</v>
       </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="80">
+      <c r="L8" s="101"/>
+      <c r="M8" s="79">
         <v>701</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="79">
         <v>963</v>
       </c>
-      <c r="O8" s="78" t="s">
-        <v>139</v>
+      <c r="O8" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2583,23 +2600,23 @@
       <c r="G9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="96" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="76">
         <v>43568</v>
       </c>
       <c r="J9" s="76"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="80">
+      <c r="K9" s="99"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="79">
         <v>1</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="79">
         <v>968</v>
       </c>
-      <c r="O9" s="78" t="s">
-        <v>139</v>
+      <c r="O9" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2622,23 +2639,23 @@
       <c r="G10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="96" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="76">
         <v>43568</v>
       </c>
       <c r="J10" s="76"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="80">
+      <c r="K10" s="99"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="79">
         <v>1</v>
       </c>
-      <c r="N10" s="80">
+      <c r="N10" s="79">
         <v>968</v>
       </c>
-      <c r="O10" s="78" t="s">
-        <v>139</v>
+      <c r="O10" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2663,20 +2680,20 @@
       <c r="G11" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="96" t="s">
         <v>90</v>
       </c>
       <c r="I11" s="76">
         <v>43568</v>
       </c>
       <c r="J11" s="76"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="80">
+      <c r="K11" s="99"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="79">
         <v>1</v>
       </c>
-      <c r="O11" s="78" t="s">
-        <v>139</v>
+      <c r="O11" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2701,20 +2718,20 @@
       <c r="G12" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="96" t="s">
         <v>90</v>
       </c>
       <c r="I12" s="76">
         <v>43568</v>
       </c>
       <c r="J12" s="76"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="80">
+      <c r="K12" s="99"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="79">
         <v>2</v>
       </c>
-      <c r="O12" s="78" t="s">
-        <v>139</v>
+      <c r="O12" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2737,7 +2754,7 @@
       <c r="G13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="96" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="76">
@@ -2746,16 +2763,16 @@
       <c r="J13" s="76">
         <v>43556</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="80">
+      <c r="K13" s="99"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="79">
         <v>10</v>
       </c>
-      <c r="N13" s="80">
+      <c r="N13" s="79">
         <v>22</v>
       </c>
-      <c r="O13" s="78" t="s">
-        <v>139</v>
+      <c r="O13" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2776,20 +2793,20 @@
       <c r="G14" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="97"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="76">
         <v>43525</v>
       </c>
       <c r="J14" s="76">
         <v>43556</v>
       </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="80">
+      <c r="K14" s="99"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="79">
         <v>14</v>
       </c>
-      <c r="O14" s="78" t="s">
-        <v>139</v>
+      <c r="O14" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2812,7 +2829,7 @@
       <c r="G15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="96" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="76">
@@ -2821,16 +2838,16 @@
       <c r="J15" s="76">
         <v>43556</v>
       </c>
-      <c r="K15" s="100"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="80">
+      <c r="K15" s="99"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="79">
         <v>1</v>
       </c>
-      <c r="N15" s="80">
+      <c r="N15" s="79">
         <v>101</v>
       </c>
-      <c r="O15" s="78" t="s">
-        <v>139</v>
+      <c r="O15" s="102" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2847,20 +2864,20 @@
       <c r="G16" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="76">
         <v>43556</v>
       </c>
       <c r="J16" s="76">
         <v>43617</v>
       </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="80">
+      <c r="K16" s="99"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="79">
         <v>101</v>
       </c>
-      <c r="O16" s="78" t="s">
-        <v>139</v>
+      <c r="O16" s="102" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,20 +2898,20 @@
       <c r="G17" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="97"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="76">
         <v>43570</v>
       </c>
       <c r="J17" s="76">
         <v>43626</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="80">
+      <c r="K17" s="99"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="79">
         <v>151</v>
       </c>
-      <c r="O17" s="78" t="s">
-        <v>139</v>
+      <c r="O17" s="102" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2915,20 +2932,20 @@
       <c r="G18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="97"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="76">
         <v>43590</v>
       </c>
       <c r="J18" s="76">
         <v>43626</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="80">
+      <c r="K18" s="99"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="79">
         <v>216</v>
       </c>
-      <c r="O18" s="78" t="s">
-        <v>139</v>
+      <c r="O18" s="102" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2949,20 +2966,20 @@
       <c r="G19" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="97"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="76">
         <v>43560</v>
       </c>
       <c r="J19" s="76">
         <v>43626</v>
       </c>
-      <c r="K19" s="100"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="80">
+      <c r="K19" s="99"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="79">
         <v>160</v>
       </c>
-      <c r="O19" s="78" t="s">
-        <v>139</v>
+      <c r="O19" s="102" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2983,18 +3000,18 @@
       <c r="G20" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="76">
         <v>43586</v>
       </c>
       <c r="J20" s="76"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="80">
+      <c r="K20" s="99"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="79">
         <v>30</v>
       </c>
-      <c r="O20" s="78" t="s">
-        <v>139</v>
+      <c r="O20" s="102" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3010,18 +3027,18 @@
       <c r="G21" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="97"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="76">
         <v>43586</v>
       </c>
       <c r="J21" s="76"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="80">
+      <c r="K21" s="99"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="79">
         <v>260</v>
       </c>
-      <c r="O21" s="78" t="s">
-        <v>139</v>
+      <c r="O21" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3037,24 +3054,24 @@
       <c r="G22" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="97"/>
-      <c r="I22" s="99">
+      <c r="H22" s="96"/>
+      <c r="I22" s="98">
         <v>43525</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J22" s="98">
         <v>43622</v>
       </c>
-      <c r="K22" s="100">
+      <c r="K22" s="99">
         <v>43662</v>
       </c>
-      <c r="L22" s="100">
+      <c r="L22" s="99">
         <v>43698</v>
       </c>
-      <c r="M22" s="80">
+      <c r="M22" s="79">
         <v>260</v>
       </c>
-      <c r="O22" s="78" t="s">
-        <v>139</v>
+      <c r="O22" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3077,7 +3094,7 @@
       <c r="G23" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="97" t="s">
+      <c r="H23" s="96" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="76">
@@ -3086,10 +3103,10 @@
       <c r="J23" s="76">
         <v>43626</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="102"/>
-      <c r="O23" s="78" t="s">
-        <v>139</v>
+      <c r="K23" s="99"/>
+      <c r="L23" s="101"/>
+      <c r="O23" s="102" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3110,24 +3127,24 @@
       <c r="G24" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="96"/>
       <c r="I24" s="76">
         <v>43556</v>
       </c>
       <c r="J24" s="76">
         <v>43622</v>
       </c>
-      <c r="K24" s="100">
+      <c r="K24" s="99">
         <v>43662</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="101">
         <v>43698</v>
       </c>
-      <c r="M24" s="80">
+      <c r="M24" s="79">
         <v>252</v>
       </c>
-      <c r="O24" s="78" t="s">
-        <v>139</v>
+      <c r="O24" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3148,24 +3165,24 @@
       <c r="G25" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="97"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="76">
         <v>43570</v>
       </c>
       <c r="J25" s="76">
         <v>43622</v>
       </c>
-      <c r="K25" s="100">
+      <c r="K25" s="99">
         <v>43662</v>
       </c>
-      <c r="L25" s="102">
+      <c r="L25" s="101">
         <v>43698</v>
       </c>
-      <c r="M25" s="80">
+      <c r="M25" s="79">
         <v>252</v>
       </c>
-      <c r="O25" s="78" t="s">
-        <v>139</v>
+      <c r="O25" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3182,20 +3199,20 @@
       <c r="G26" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="97"/>
+      <c r="H26" s="96"/>
       <c r="I26" s="76">
         <v>43586</v>
       </c>
       <c r="J26" s="76">
         <v>43662</v>
       </c>
-      <c r="K26" s="100"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="80">
+      <c r="K26" s="99"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="79">
         <v>252</v>
       </c>
-      <c r="O26" s="78" t="s">
-        <v>139</v>
+      <c r="O26" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3212,24 +3229,24 @@
       <c r="G27" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="97"/>
-      <c r="I27" s="99">
+      <c r="H27" s="96"/>
+      <c r="I27" s="98">
         <v>43525</v>
       </c>
-      <c r="J27" s="99">
+      <c r="J27" s="98">
         <v>43622</v>
       </c>
-      <c r="K27" s="100">
+      <c r="K27" s="99">
         <v>43662</v>
       </c>
-      <c r="L27" s="100">
+      <c r="L27" s="99">
         <v>43698</v>
       </c>
-      <c r="M27" s="80">
+      <c r="M27" s="79">
         <v>257</v>
       </c>
-      <c r="O27" s="78" t="s">
-        <v>139</v>
+      <c r="O27" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3250,24 +3267,24 @@
       <c r="G28" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="97"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="76">
         <v>43570</v>
       </c>
-      <c r="J28" s="99">
+      <c r="J28" s="98">
         <v>43622</v>
       </c>
-      <c r="K28" s="100">
+      <c r="K28" s="99">
         <v>43662</v>
       </c>
-      <c r="L28" s="100">
+      <c r="L28" s="99">
         <v>43698</v>
       </c>
-      <c r="M28" s="80">
+      <c r="M28" s="79">
         <v>257</v>
       </c>
-      <c r="O28" s="78" t="s">
-        <v>139</v>
+      <c r="O28" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3288,24 +3305,24 @@
       <c r="G29" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="97"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="76">
         <v>43570</v>
       </c>
-      <c r="J29" s="99">
+      <c r="J29" s="98">
         <v>43622</v>
       </c>
-      <c r="K29" s="100">
+      <c r="K29" s="99">
         <v>43662</v>
       </c>
-      <c r="L29" s="100">
+      <c r="L29" s="99">
         <v>43698</v>
       </c>
-      <c r="M29" s="80">
+      <c r="M29" s="79">
         <v>255</v>
       </c>
-      <c r="O29" s="78" t="s">
-        <v>139</v>
+      <c r="O29" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3322,20 +3339,20 @@
       <c r="G30" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="97"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="76">
         <v>43586</v>
       </c>
       <c r="J30" s="76">
         <v>43662</v>
       </c>
-      <c r="K30" s="100"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="80">
+      <c r="K30" s="99"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="79">
         <v>276</v>
       </c>
-      <c r="O30" s="78" t="s">
-        <v>139</v>
+      <c r="O30" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3352,30 +3369,30 @@
       <c r="G31" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="99">
+      <c r="H31" s="96"/>
+      <c r="I31" s="98">
         <v>43525</v>
       </c>
-      <c r="J31" s="99">
+      <c r="J31" s="98">
         <v>43622</v>
       </c>
-      <c r="K31" s="100">
+      <c r="K31" s="99">
         <v>43662</v>
       </c>
-      <c r="L31" s="100">
+      <c r="L31" s="99">
         <v>43698</v>
       </c>
-      <c r="M31" s="80">
+      <c r="M31" s="79">
         <v>255</v>
       </c>
-      <c r="O31" s="78" t="s">
-        <v>139</v>
+      <c r="O31" s="102" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="95"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -3850,22 +3867,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="80" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3874,32 +3891,32 @@
         <v>117</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="82">
+        <v>140</v>
+      </c>
+      <c r="C2" s="81">
         <v>0</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="81">
         <v>85</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="81">
         <v>170</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82">
+        <v>139</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81">
         <v>170</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="81">
         <v>230</v>
       </c>
     </row>
@@ -3908,16 +3925,16 @@
         <v>120</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82">
+        <v>139</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81">
         <v>85</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="81">
         <v>170</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="81">
         <v>230</v>
       </c>
     </row>
@@ -3926,96 +3943,96 @@
         <v>119</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82">
+        <v>139</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81">
         <v>85</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="81">
         <v>170</v>
       </c>
-      <c r="F5" s="81"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82">
+      <c r="B6" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81">
         <v>85</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="81">
         <v>170</v>
       </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="82">
+        <v>139</v>
+      </c>
+      <c r="C7" s="81">
         <v>0</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="82">
         <v>85</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="82">
+        <v>140</v>
+      </c>
+      <c r="C8" s="81">
         <v>0</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="81">
         <v>85</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="82">
+        <v>139</v>
+      </c>
+      <c r="C9" s="81">
         <v>0</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>85</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="81">
+      <c r="B10" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="80">
         <v>0</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="81">
         <v>85</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -147,12 +147,6 @@
     <t>Vårbyg GG</t>
   </si>
   <si>
-    <t>Rye</t>
-  </si>
-  <si>
-    <t>Winter Rape</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>kvaeg_dybstroelse</t>
   </si>
   <si>
-    <t>HarvestHow</t>
-  </si>
-  <si>
     <t>stub 5 [cm]</t>
   </si>
   <si>
@@ -478,6 +469,12 @@
   </si>
   <si>
     <t>sorg 0.99)(leaf 0.01)(stem 0.01)(stub 10 [cm]</t>
+  </si>
+  <si>
+    <t>HarvestHow1</t>
+  </si>
+  <si>
+    <t>HarvestHow2</t>
   </si>
 </sst>
 </file>
@@ -903,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,12 +1122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1192,20 +1183,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,70 +1509,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="J1" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="40" t="s">
+      <c r="O1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="S1" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="53" t="s">
         <v>95</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1598,31 +1589,31 @@
         <v>33</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>3</v>
@@ -1634,22 +1625,22 @@
         <v>2</v>
       </c>
       <c r="Q2" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="86" t="s">
-        <v>47</v>
+      <c r="S2" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>45</v>
       </c>
       <c r="V2" s="54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W2" s="54" t="s">
         <v>37</v>
@@ -1666,7 +1657,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>9</v>
@@ -1684,19 +1675,19 @@
         <v>9</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>37</v>
@@ -1710,13 +1701,13 @@
       <c r="R3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="90" t="s">
+      <c r="S3" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="85" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="41" t="s">
@@ -1734,16 +1725,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>9</v>
@@ -1755,19 +1746,19 @@
         <v>9</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>37</v>
@@ -1779,15 +1770,15 @@
         <v>8</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="85" t="s">
         <v>1</v>
       </c>
       <c r="V4" s="32" t="s">
@@ -1817,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>9</v>
@@ -1826,22 +1817,22 @@
         <v>9</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P5" s="47" t="s">
         <v>2</v>
@@ -1852,11 +1843,11 @@
       <c r="R5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="88" t="s">
-        <v>102</v>
+      <c r="S5" s="86" t="s">
+        <v>100</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U5" s="55" t="s">
         <v>1</v>
@@ -1897,16 +1888,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N6" s="50" t="s">
         <v>2</v>
@@ -1924,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="T6" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U6" s="55" t="s">
         <v>1</v>
@@ -1933,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="W6" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1944,10 +1935,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>1</v>
@@ -1959,18 +1950,18 @@
         <v>1</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="91" t="s">
-        <v>127</v>
+        <v>63</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>125</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>10</v>
@@ -1980,10 +1971,10 @@
         <v>2</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S7" s="30" t="s">
         <v>7</v>
@@ -1995,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W7" s="57" t="s">
         <v>34</v>
@@ -2006,59 +1997,59 @@
         <v>11</v>
       </c>
       <c r="B8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="61" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>118</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V8" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W8" s="61"/>
     </row>
@@ -2069,57 +2060,57 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U9" s="61"/>
       <c r="V9" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="W9" s="64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" t="s">
@@ -2178,7 +2169,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2206,7 +2197,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2265,29 +2256,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="4"/>
     <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="77" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="18.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>29</v>
       </c>
@@ -2295,1104 +2285,1116 @@
         <v>30</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="L1" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76">
-        <v>43727</v>
-      </c>
-      <c r="C2" s="68">
-        <v>43728</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68">
+      <c r="B2" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C2" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100">
         <v>43697</v>
       </c>
       <c r="F2" s="68"/>
       <c r="G2" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="76">
+        <v>134</v>
+      </c>
+      <c r="H2" s="94"/>
+      <c r="I2" s="99">
         <v>43525</v>
       </c>
-      <c r="J2" s="76">
+      <c r="J2" s="99">
         <v>43556</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="79">
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="77">
         <v>11</v>
       </c>
-      <c r="O2" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76">
-        <v>43727</v>
-      </c>
-      <c r="C3" s="68">
-        <v>43728</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68">
+      <c r="B3" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C3" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100">
         <v>43677</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="76">
+      <c r="H3" s="94"/>
+      <c r="I3" s="99">
         <v>43525</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="99">
         <v>43556</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="79">
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="77">
         <v>10</v>
       </c>
-      <c r="O3" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76">
-        <v>43727</v>
-      </c>
-      <c r="C4" s="68">
-        <v>43728</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68">
+      <c r="B4" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C4" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100">
         <v>43687</v>
       </c>
       <c r="F4" s="68"/>
       <c r="G4" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="76">
+        <v>135</v>
+      </c>
+      <c r="H4" s="94"/>
+      <c r="I4" s="99">
         <v>43525</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="99">
         <v>43556</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="79">
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="77">
         <v>14</v>
       </c>
-      <c r="O4" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="75">
-        <v>43696</v>
-      </c>
-      <c r="C5" s="75">
-        <v>43697</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68">
+      <c r="B5" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C5" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100">
         <v>43678</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="76">
+        <v>133</v>
+      </c>
+      <c r="H5" s="94"/>
+      <c r="I5" s="99">
         <v>43525</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="99">
         <v>43570</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="79">
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="77">
         <v>22</v>
       </c>
-      <c r="O5" s="102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="68">
+        <v>92</v>
+      </c>
+      <c r="B6" s="100">
         <v>43556</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="100">
         <v>43557</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100">
         <v>43678</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="76">
+        <v>89</v>
+      </c>
+      <c r="H6" s="94"/>
+      <c r="I6" s="99">
         <v>43568</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="77">
+      <c r="J6" s="99"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="75">
         <v>2</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="75"/>
+      <c r="O6" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="100">
         <v>43556</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="100">
         <v>43557</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68">
+      <c r="D7" s="100"/>
+      <c r="E7" s="100">
         <v>43687</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="76">
+        <v>38</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="99">
         <v>43568</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="79">
+      <c r="J7" s="99"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="77">
         <v>1</v>
       </c>
-      <c r="O7" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="68">
+        <v>85</v>
+      </c>
+      <c r="B8" s="100">
         <v>43556</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="100">
         <v>43557</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="100">
         <v>43558</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="100">
         <v>43617</v>
       </c>
       <c r="F8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="76">
+        <v>38</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="99">
         <v>43568</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="99">
         <v>43648</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="95">
         <v>43679</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="79">
+      <c r="L8" s="96"/>
+      <c r="M8" s="77">
         <v>701</v>
       </c>
-      <c r="N8" s="79">
+      <c r="N8" s="77">
         <v>963</v>
       </c>
-      <c r="O8" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="68">
+        <v>96</v>
+      </c>
+      <c r="B9" s="100">
         <v>43556</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="100">
         <v>43557</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="100">
         <v>43558</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="100">
         <v>43687</v>
       </c>
       <c r="F9" s="73"/>
       <c r="G9" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="76">
+        <v>38</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="99">
         <v>43568</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="79">
+      <c r="J9" s="99"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="77">
         <v>1</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="77">
         <v>968</v>
       </c>
-      <c r="O9" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="68">
+        <v>45</v>
+      </c>
+      <c r="B10" s="100">
         <v>43556</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="100">
         <v>43557</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="100">
         <v>43558</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="100">
         <v>43687</v>
       </c>
       <c r="F10" s="68"/>
       <c r="G10" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="76">
+        <v>38</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="99">
         <v>43568</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="79">
+      <c r="J10" s="99"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="77">
         <v>1</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="77">
         <v>968</v>
       </c>
-      <c r="O10" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="100">
         <v>43556</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="100">
         <v>43557</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="100">
         <v>43558</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="100">
         <v>43687</v>
       </c>
       <c r="F11" s="68">
         <v>43723</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="76">
+        <v>38</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="99">
         <v>43568</v>
       </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="79">
+      <c r="J11" s="99"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="77">
         <v>1</v>
       </c>
-      <c r="O11" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="68">
+        <v>70</v>
+      </c>
+      <c r="B12" s="100">
         <v>43556</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="100">
         <v>43557</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="100">
         <v>43558</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="100">
         <v>43678</v>
       </c>
       <c r="F12" s="68">
         <v>43723</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="76">
+        <v>89</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="99">
         <v>43568</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="79">
+      <c r="J12" s="99"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="77">
         <v>2</v>
       </c>
-      <c r="O12" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="76">
-        <v>43727</v>
-      </c>
-      <c r="C13" s="68">
-        <v>43728</v>
-      </c>
-      <c r="D13" s="68">
+        <v>47</v>
+      </c>
+      <c r="B13" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C13" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D13" s="100">
         <v>43687</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="100">
         <v>43678</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="76">
+      <c r="H13" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="99">
         <v>43525</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="99">
         <v>43556</v>
       </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="79">
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="77">
         <v>10</v>
       </c>
-      <c r="N13" s="79">
+      <c r="N13" s="77">
         <v>22</v>
       </c>
-      <c r="O13" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="76">
-        <v>43727</v>
-      </c>
-      <c r="C14" s="68">
-        <v>43728</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68">
+        <v>128</v>
+      </c>
+      <c r="B14" s="99">
+        <v>43362</v>
+      </c>
+      <c r="C14" s="100">
+        <v>43363</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100">
         <v>43687</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="76">
+        <v>135</v>
+      </c>
+      <c r="H14" s="94"/>
+      <c r="I14" s="99">
         <v>43525</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="99">
         <v>43556</v>
       </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="79">
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="77">
         <v>14</v>
       </c>
-      <c r="O14" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="68">
+        <v>84</v>
+      </c>
+      <c r="B15" s="100">
         <v>43556</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="100">
         <v>43557</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="100">
         <v>43558</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="100">
         <v>43678</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="76">
+        <v>38</v>
+      </c>
+      <c r="H15" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="99">
         <v>43557</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="99">
         <v>43556</v>
       </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="79">
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="77">
         <v>1</v>
       </c>
-      <c r="N15" s="79">
+      <c r="N15" s="77">
         <v>101</v>
       </c>
-      <c r="O15" s="102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100">
         <v>43678</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="76">
+        <v>42</v>
+      </c>
+      <c r="H16" s="94"/>
+      <c r="I16" s="99">
         <v>43556</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="99">
         <v>43617</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="79">
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="77">
         <v>101</v>
       </c>
-      <c r="O16" s="102" t="s">
-        <v>148</v>
+      <c r="O16" s="97" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="100">
         <v>43556</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="100">
         <v>43557</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68">
+      <c r="D17" s="100"/>
+      <c r="E17" s="100">
         <v>43661</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="96"/>
-      <c r="I17" s="76">
+        <v>136</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="99">
         <v>43570</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="99">
         <v>43626</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="79">
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="77">
         <v>151</v>
       </c>
-      <c r="O17" s="102" t="s">
-        <v>144</v>
+      <c r="O17" s="97" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="100">
         <v>43586</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="100">
         <v>43590</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68">
+      <c r="D18" s="100"/>
+      <c r="E18" s="100">
         <v>43733</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="76">
+      <c r="H18" s="94"/>
+      <c r="I18" s="99">
         <v>43590</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="99">
         <v>43626</v>
       </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="79">
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="77">
         <v>216</v>
       </c>
-      <c r="O18" s="102" t="s">
-        <v>145</v>
+      <c r="O18" s="97" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="100">
         <v>43556</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="100">
         <v>43560</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68">
+      <c r="D19" s="100"/>
+      <c r="E19" s="100">
         <v>43733</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="96"/>
-      <c r="I19" s="76">
+        <v>39</v>
+      </c>
+      <c r="H19" s="94"/>
+      <c r="I19" s="99">
         <v>43560</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="99">
         <v>43626</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="79">
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="77">
         <v>160</v>
       </c>
-      <c r="O19" s="102" t="s">
-        <v>144</v>
+      <c r="O19" s="97" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="100">
         <v>43577</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="100">
         <v>43580</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100">
         <v>43713</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="96"/>
-      <c r="I20" s="76">
+        <v>40</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="99">
         <v>43586</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="79">
+      <c r="J20" s="99"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="77">
         <v>30</v>
       </c>
-      <c r="O20" s="102" t="s">
-        <v>146</v>
+      <c r="O20" s="97" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="96"/>
-      <c r="I21" s="76">
+        <v>59</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="99">
         <v>43586</v>
       </c>
-      <c r="J21" s="76"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="79">
+      <c r="J21" s="99"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="77">
         <v>260</v>
       </c>
-      <c r="O21" s="102" t="s">
-        <v>143</v>
+      <c r="O21" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="96"/>
-      <c r="I22" s="98">
+        <v>59</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="101">
         <v>43525</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J22" s="101">
         <v>43622</v>
       </c>
-      <c r="K22" s="99">
+      <c r="K22" s="95">
         <v>43662</v>
       </c>
-      <c r="L22" s="99">
+      <c r="L22" s="95">
         <v>43698</v>
       </c>
-      <c r="M22" s="79">
+      <c r="M22" s="77">
         <v>260</v>
       </c>
-      <c r="O22" s="102" t="s">
-        <v>143</v>
+      <c r="O22" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="68">
+        <v>102</v>
+      </c>
+      <c r="B23" s="100">
         <v>43586</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="100">
         <v>43590</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="100">
         <v>43626</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="100">
         <v>43733</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="76">
+      <c r="H23" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="99">
         <v>43590</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="99">
         <v>43626</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="101"/>
-      <c r="O23" s="102" t="s">
-        <v>145</v>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="O23" s="97" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="68">
+        <v>105</v>
+      </c>
+      <c r="B24" s="100">
         <v>43556</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="100">
         <v>43560</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71" t="s">
+      <c r="D24" s="100"/>
+      <c r="E24" s="100" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="96"/>
-      <c r="I24" s="76">
+        <v>41</v>
+      </c>
+      <c r="H24" s="94"/>
+      <c r="I24" s="99">
         <v>43556</v>
       </c>
-      <c r="J24" s="76">
+      <c r="J24" s="99">
         <v>43622</v>
       </c>
-      <c r="K24" s="99">
+      <c r="K24" s="95">
         <v>43662</v>
       </c>
-      <c r="L24" s="101">
+      <c r="L24" s="96">
         <v>43698</v>
       </c>
-      <c r="M24" s="79">
+      <c r="M24" s="77">
         <v>252</v>
       </c>
-      <c r="O24" s="102" t="s">
-        <v>143</v>
+      <c r="O24" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="68">
+        <v>127</v>
+      </c>
+      <c r="B25" s="100">
         <v>43556</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="100">
         <v>43560</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="100" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="96"/>
-      <c r="I25" s="76">
+        <v>59</v>
+      </c>
+      <c r="H25" s="94"/>
+      <c r="I25" s="99">
         <v>43570</v>
       </c>
-      <c r="J25" s="76">
+      <c r="J25" s="99">
         <v>43622</v>
       </c>
-      <c r="K25" s="99">
+      <c r="K25" s="95">
         <v>43662</v>
       </c>
-      <c r="L25" s="101">
+      <c r="L25" s="96">
         <v>43698</v>
       </c>
-      <c r="M25" s="79">
+      <c r="M25" s="77">
         <v>252</v>
       </c>
-      <c r="O25" s="102" t="s">
-        <v>143</v>
+      <c r="O25" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="96"/>
-      <c r="I26" s="76">
+        <v>41</v>
+      </c>
+      <c r="H26" s="94"/>
+      <c r="I26" s="99">
         <v>43586</v>
       </c>
-      <c r="J26" s="76">
+      <c r="J26" s="99">
         <v>43662</v>
       </c>
-      <c r="K26" s="99"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="79">
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="77">
         <v>252</v>
       </c>
-      <c r="O26" s="102" t="s">
-        <v>143</v>
+      <c r="O26" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="96"/>
-      <c r="I27" s="98">
+        <v>41</v>
+      </c>
+      <c r="H27" s="94"/>
+      <c r="I27" s="101">
         <v>43525</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="101">
         <v>43622</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="95">
         <v>43662</v>
       </c>
-      <c r="L27" s="99">
+      <c r="L27" s="95">
         <v>43698</v>
       </c>
-      <c r="M27" s="79">
+      <c r="M27" s="77">
         <v>257</v>
       </c>
-      <c r="O27" s="102" t="s">
-        <v>143</v>
+      <c r="O27" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="68">
+        <v>101</v>
+      </c>
+      <c r="B28" s="100">
         <v>43556</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="100">
         <v>43560</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="71" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="100" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="71"/>
       <c r="G28" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="76">
+        <v>41</v>
+      </c>
+      <c r="H28" s="94"/>
+      <c r="I28" s="99">
         <v>43570</v>
       </c>
-      <c r="J28" s="98">
+      <c r="J28" s="101">
         <v>43622</v>
       </c>
-      <c r="K28" s="99">
+      <c r="K28" s="95">
         <v>43662</v>
       </c>
-      <c r="L28" s="99">
+      <c r="L28" s="95">
         <v>43698</v>
       </c>
-      <c r="M28" s="79">
+      <c r="M28" s="77">
         <v>257</v>
       </c>
-      <c r="O28" s="102" t="s">
-        <v>143</v>
+      <c r="O28" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="68">
+        <v>124</v>
+      </c>
+      <c r="B29" s="100">
         <v>43556</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="100">
         <v>43560</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="71" t="s">
+      <c r="D29" s="100"/>
+      <c r="E29" s="100" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="76">
+        <v>59</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="99">
         <v>43570</v>
       </c>
-      <c r="J29" s="98">
+      <c r="J29" s="101">
         <v>43622</v>
       </c>
-      <c r="K29" s="99">
+      <c r="K29" s="95">
         <v>43662</v>
       </c>
-      <c r="L29" s="99">
+      <c r="L29" s="95">
         <v>43698</v>
       </c>
-      <c r="M29" s="79">
+      <c r="M29" s="77">
         <v>255</v>
       </c>
-      <c r="O29" s="102" t="s">
-        <v>143</v>
+      <c r="O29" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="76">
+        <v>59</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="99">
         <v>43586</v>
       </c>
-      <c r="J30" s="76">
+      <c r="J30" s="99">
         <v>43662</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="79">
+      <c r="K30" s="95"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="77">
         <v>276</v>
       </c>
-      <c r="O30" s="102" t="s">
-        <v>143</v>
+      <c r="O30" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="96"/>
-      <c r="I31" s="98">
+        <v>59</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="101">
         <v>43525</v>
       </c>
-      <c r="J31" s="98">
+      <c r="J31" s="101">
         <v>43622</v>
       </c>
-      <c r="K31" s="99">
+      <c r="K31" s="95">
         <v>43662</v>
       </c>
-      <c r="L31" s="99">
+      <c r="L31" s="95">
         <v>43698</v>
       </c>
-      <c r="M31" s="79">
+      <c r="M31" s="77">
         <v>255</v>
       </c>
-      <c r="O31" s="102" t="s">
-        <v>143</v>
+      <c r="O31" s="97" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="92"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -3424,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3450,7 +3452,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -3478,7 +3480,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="23">
         <v>43739</v>
@@ -3551,14 +3553,14 @@
         <v>43557</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="23">
         <v>43768</v>
@@ -3566,10 +3568,10 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3586,15 +3588,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="23">
         <v>43768</v>
@@ -3606,15 +3608,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="23">
         <v>43768</v>
@@ -3626,10 +3628,10 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3642,7 +3644,7 @@
         <v>43678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7">
         <v>101</v>
@@ -3726,7 +3728,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -3734,7 +3736,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="23">
         <v>43556</v>
@@ -3746,7 +3748,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -3754,7 +3756,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="23">
         <v>43556</v>
@@ -3766,10 +3768,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3784,13 +3786,13 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -3802,7 +3804,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7">
         <v>252</v>
@@ -3810,7 +3812,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -3822,7 +3824,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="7">
         <v>255</v>
@@ -3830,7 +3832,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="23">
         <v>43556</v>
@@ -3842,7 +3844,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7">
         <v>255</v>
@@ -3867,172 +3869,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="84" t="s">
+      <c r="B1" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="80" t="s">
-        <v>110</v>
+      <c r="E1" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="81">
+        <v>138</v>
+      </c>
+      <c r="C2" s="79">
         <v>0</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="79">
         <v>85</v>
       </c>
-      <c r="E2" s="81">
+      <c r="E2" s="79">
         <v>170</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81">
+        <v>137</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79">
         <v>170</v>
       </c>
-      <c r="F3" s="81">
+      <c r="F3" s="79">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81">
+        <v>137</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79">
         <v>85</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="79">
         <v>170</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="79">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81">
+        <v>137</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79">
         <v>85</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="79">
         <v>170</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81">
+        <v>119</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79">
         <v>85</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="79">
         <v>170</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="81">
+        <v>137</v>
+      </c>
+      <c r="C7" s="79">
         <v>0</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>85</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="81">
+        <v>138</v>
+      </c>
+      <c r="C8" s="79">
         <v>0</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="79">
         <v>85</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="81">
+        <v>137</v>
+      </c>
+      <c r="C9" s="79">
         <v>0</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="79">
         <v>85</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="80">
+        <v>106</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="78">
         <v>0</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="79">
         <v>85</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -19,7 +19,7 @@
     <sheet name="soil_climate_more" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$N$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>HarvestHow2</t>
+  </si>
+  <si>
+    <t>sorg 0.01) (leaf 0.01) (stem 0.01) (stub 5 [cm]</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2262,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="77">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O9" s="97" t="s">
         <v>144</v>
@@ -2648,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="77">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="O10" s="97" t="s">
         <v>144</v>
@@ -2688,11 +2691,14 @@
       <c r="M11" s="77">
         <v>1</v>
       </c>
+      <c r="N11" s="77">
+        <v>970</v>
+      </c>
       <c r="O11" s="97" t="s">
         <v>144</v>
       </c>
       <c r="P11" s="97" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2729,11 +2735,14 @@
       <c r="M12" s="77">
         <v>2</v>
       </c>
+      <c r="N12" s="77">
+        <v>970</v>
+      </c>
       <c r="O12" s="97" t="s">
         <v>144</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2771,7 +2780,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="77">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="O13" s="97" t="s">
         <v>144</v>
@@ -2806,6 +2815,9 @@
       <c r="L14" s="96"/>
       <c r="M14" s="77">
         <v>14</v>
+      </c>
+      <c r="N14" s="77">
+        <v>970</v>
       </c>
       <c r="O14" s="97" t="s">
         <v>144</v>
@@ -3037,10 +3049,10 @@
       <c r="K21" s="95"/>
       <c r="L21" s="96"/>
       <c r="M21" s="77">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O21" s="97" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3107,6 +3119,12 @@
       </c>
       <c r="K23" s="95"/>
       <c r="L23" s="96"/>
+      <c r="M23" s="77">
+        <v>216</v>
+      </c>
+      <c r="N23" s="77">
+        <v>970</v>
+      </c>
       <c r="O23" s="97" t="s">
         <v>142</v>
       </c>
@@ -3219,33 +3237,29 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B27" s="100"/>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
       <c r="E27" s="100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F27" s="71"/>
       <c r="G27" s="70" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H27" s="94"/>
-      <c r="I27" s="101">
-        <v>43525</v>
-      </c>
-      <c r="J27" s="101">
-        <v>43622</v>
-      </c>
-      <c r="K27" s="95">
+      <c r="I27" s="99">
+        <v>43586</v>
+      </c>
+      <c r="J27" s="99">
         <v>43662</v>
       </c>
-      <c r="L27" s="95">
-        <v>43698</v>
-      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="96"/>
       <c r="M27" s="77">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O27" s="97" t="s">
         <v>140</v>
@@ -3253,14 +3267,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C28" s="100">
-        <v>43560</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="100"/>
       <c r="E28" s="100" t="s">
         <v>26</v>
@@ -3270,8 +3280,8 @@
         <v>41</v>
       </c>
       <c r="H28" s="94"/>
-      <c r="I28" s="99">
-        <v>43570</v>
+      <c r="I28" s="101">
+        <v>43525</v>
       </c>
       <c r="J28" s="101">
         <v>43622</v>
@@ -3291,7 +3301,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B29" s="100">
         <v>43556</v>
@@ -3305,7 +3315,7 @@
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="70" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H29" s="94"/>
       <c r="I29" s="99">
@@ -3321,7 +3331,7 @@
         <v>43698</v>
       </c>
       <c r="M29" s="77">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O29" s="97" t="s">
         <v>140</v>
@@ -3329,13 +3339,17 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
+        <v>124</v>
+      </c>
+      <c r="B30" s="100">
+        <v>43556</v>
+      </c>
+      <c r="C30" s="100">
+        <v>43560</v>
+      </c>
       <c r="D30" s="100"/>
       <c r="E30" s="100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="70" t="s">
@@ -3343,15 +3357,19 @@
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="99">
-        <v>43586</v>
-      </c>
-      <c r="J30" s="99">
+        <v>43570</v>
+      </c>
+      <c r="J30" s="101">
+        <v>43622</v>
+      </c>
+      <c r="K30" s="95">
         <v>43662</v>
       </c>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
+      <c r="L30" s="95">
+        <v>43698</v>
+      </c>
       <c r="M30" s="77">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="O30" s="97" t="s">
         <v>140</v>
@@ -3385,7 +3403,7 @@
         <v>43698</v>
       </c>
       <c r="M31" s="77">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O31" s="97" t="s">
         <v>140</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
-    <sheet name="Crops" sheetId="2" r:id="rId2"/>
-    <sheet name="Crops_JB6" sheetId="7" r:id="rId3"/>
-    <sheet name="Manure1" sheetId="10" r:id="rId4"/>
-    <sheet name="soil_climate_more" sheetId="5" r:id="rId5"/>
+    <sheet name="Rotations_org" sheetId="11" r:id="rId2"/>
+    <sheet name="Manure1" sheetId="10" r:id="rId3"/>
+    <sheet name="Crops" sheetId="2" r:id="rId4"/>
+    <sheet name="Crops_JB6" sheetId="7" r:id="rId5"/>
+    <sheet name="soil_climate_more" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Crops!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Crops!$A$1:$N$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -273,9 +274,6 @@
     <t>P3</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
     <t>PK8</t>
   </si>
   <si>
@@ -478,6 +476,21 @@
   </si>
   <si>
     <t>sorg 0.01) (leaf 0.01) (stem 0.01) (stub 5 [cm]</t>
+  </si>
+  <si>
+    <t>PØ5</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>PØ9</t>
+  </si>
+  <si>
+    <t>PK5</t>
+  </si>
+  <si>
+    <t>SK1E</t>
   </si>
 </sst>
 </file>
@@ -604,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -899,11 +912,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -993,9 +1067,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1071,9 +1142,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1081,9 +1149,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1091,9 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1156,9 +1218,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1200,6 +1259,51 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1480,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,91 +1598,78 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>123</v>
+      <c r="L1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="53" t="s">
+      <c r="Q1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1591,65 +1682,53 @@
       <c r="D2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="41" t="s">
+      <c r="E2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="83" t="s">
+      <c r="O2" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="84" t="s">
+      <c r="Q2" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1660,67 +1739,55 @@
         <v>33</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="37" t="s">
         <v>45</v>
       </c>
+      <c r="M3" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="85" t="s">
+      <c r="Q3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="R3" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1728,18 +1795,18 @@
         <v>33</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="107" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="28" t="s">
@@ -1748,50 +1815,38 @@
       <c r="I4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="27" t="s">
+      <c r="L4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="O4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="P4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="85" t="s">
+      <c r="Q4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="R4" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1801,68 +1856,56 @@
       <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="E5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="104" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="M5" s="27" t="s">
         <v>45</v>
       </c>
+      <c r="N5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>2</v>
+      </c>
       <c r="P5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1872,191 +1915,167 @@
       <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="36" t="s">
+      <c r="E6" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="105" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="35" t="s">
+      <c r="K6" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" s="50" t="s">
+      <c r="L6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="N6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="O6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="P6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="49" t="s">
+      <c r="Q6" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="E7" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="106" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="89" t="s">
-        <v>125</v>
-      </c>
+      <c r="L7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="P7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="M8" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="O8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="W8" s="61"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2065,53 +2084,39 @@
       <c r="D9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="61" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="61" t="s">
+      <c r="M9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="61" t="s">
+      <c r="O9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2139,40 +2144,32 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="61" t="s">
+      <c r="L10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="M10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61" t="s">
+      <c r="N10" s="58"/>
+      <c r="O10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R10" s="61" t="s">
+      <c r="P10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="60" t="s">
+      <c r="Q10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="60" t="s">
+      <c r="R10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="51" t="s">
+      <c r="S10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2180,89 +2177,631 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="61"/>
-      <c r="N11" s="61" t="s">
+      <c r="F11" s="58"/>
+      <c r="L11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="M11" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="P12" t="s">
+      <c r="N12" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="11" man="1"/>
+    <brk id="11" max="11" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="98">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="98">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="98">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="98">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="101">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="75">
+        <v>0</v>
+      </c>
+      <c r="D2" s="75">
+        <v>85</v>
+      </c>
+      <c r="E2" s="75">
+        <v>170</v>
+      </c>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75">
+        <v>170</v>
+      </c>
+      <c r="F3" s="75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75">
+        <v>85</v>
+      </c>
+      <c r="E4" s="75">
+        <v>170</v>
+      </c>
+      <c r="F4" s="75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75">
+        <v>85</v>
+      </c>
+      <c r="E5" s="75">
+        <v>170</v>
+      </c>
+      <c r="F5" s="74"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75">
+        <v>85</v>
+      </c>
+      <c r="E6" s="75">
+        <v>170</v>
+      </c>
+      <c r="F6" s="74"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0</v>
+      </c>
+      <c r="D7" s="76">
+        <v>85</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="74"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <v>85</v>
+      </c>
+      <c r="E8" s="76">
+        <v>115</v>
+      </c>
+      <c r="F8" s="74"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <v>70</v>
+      </c>
+      <c r="E9" s="76">
+        <v>140</v>
+      </c>
+      <c r="F9" s="74"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="74">
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <v>85</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="74"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,1146 +2812,1146 @@
     <col min="6" max="6" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="4"/>
     <col min="8" max="8" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="90" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="73" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="18.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C2" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95">
+        <v>43697</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="89"/>
+      <c r="I2" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J2" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="73">
+        <v>11</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C3" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95">
+        <v>43677</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J3" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="73">
+        <v>10</v>
+      </c>
+      <c r="O3" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C4" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="89"/>
+      <c r="I4" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J4" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="73">
+        <v>14</v>
+      </c>
+      <c r="O4" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C5" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J5" s="94">
+        <v>43570</v>
+      </c>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="73">
+        <v>22</v>
+      </c>
+      <c r="O5" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C6" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="71">
+        <v>2</v>
+      </c>
+      <c r="N6" s="71"/>
+      <c r="O6" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C7" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J7" s="94"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="73">
+        <v>1</v>
+      </c>
+      <c r="O7" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D8" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E8" s="95">
+        <v>43617</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J8" s="94">
+        <v>43648</v>
+      </c>
+      <c r="K8" s="90">
+        <v>43679</v>
+      </c>
+      <c r="L8" s="91"/>
+      <c r="M8" s="73">
+        <v>701</v>
+      </c>
+      <c r="N8" s="73">
+        <v>963</v>
+      </c>
+      <c r="O8" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C9" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D9" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E9" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J9" s="94"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="73">
+        <v>1</v>
+      </c>
+      <c r="N9" s="73">
+        <v>970</v>
+      </c>
+      <c r="O9" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C10" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D10" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E10" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J10" s="94"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="73">
+        <v>1</v>
+      </c>
+      <c r="N10" s="73">
+        <v>970</v>
+      </c>
+      <c r="O10" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C11" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D11" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E11" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F11" s="64">
+        <v>43723</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J11" s="94"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="73">
+        <v>1</v>
+      </c>
+      <c r="N11" s="73">
+        <v>970</v>
+      </c>
+      <c r="O11" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C12" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D12" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E12" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F12" s="64">
+        <v>43723</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="94">
+        <v>43568</v>
+      </c>
+      <c r="J12" s="94"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="73">
+        <v>2</v>
+      </c>
+      <c r="N12" s="73">
+        <v>970</v>
+      </c>
+      <c r="O12" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C13" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D13" s="95">
+        <v>43687</v>
+      </c>
+      <c r="E13" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J13" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="73">
+        <v>10</v>
+      </c>
+      <c r="N13" s="73">
+        <v>970</v>
+      </c>
+      <c r="O13" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="94">
+        <v>43362</v>
+      </c>
+      <c r="C14" s="95">
+        <v>43363</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95">
+        <v>43687</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="94">
+        <v>43525</v>
+      </c>
+      <c r="J14" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="73">
+        <v>14</v>
+      </c>
+      <c r="N14" s="73">
+        <v>970</v>
+      </c>
+      <c r="O14" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C15" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D15" s="95">
+        <v>43558</v>
+      </c>
+      <c r="E15" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="94">
+        <v>43557</v>
+      </c>
+      <c r="J15" s="94">
+        <v>43556</v>
+      </c>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="73">
+        <v>1</v>
+      </c>
+      <c r="N15" s="73">
+        <v>101</v>
+      </c>
+      <c r="O15" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95">
+        <v>43678</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="89"/>
+      <c r="I16" s="94">
+        <v>43556</v>
+      </c>
+      <c r="J16" s="94">
+        <v>43617</v>
+      </c>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="73">
+        <v>101</v>
+      </c>
+      <c r="O16" s="92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C17" s="95">
+        <v>43557</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95">
+        <v>43661</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="89"/>
+      <c r="I17" s="94">
+        <v>43570</v>
+      </c>
+      <c r="J17" s="94">
+        <v>43626</v>
+      </c>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="73">
+        <v>151</v>
+      </c>
+      <c r="O17" s="92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="95">
+        <v>43586</v>
+      </c>
+      <c r="C18" s="95">
+        <v>43590</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95">
+        <v>43733</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="94">
+        <v>43590</v>
+      </c>
+      <c r="J18" s="94">
+        <v>43626</v>
+      </c>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="73">
+        <v>216</v>
+      </c>
+      <c r="O18" s="92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C19" s="95">
+        <v>43560</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95">
+        <v>43733</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="94">
+        <v>43560</v>
+      </c>
+      <c r="J19" s="94">
+        <v>43626</v>
+      </c>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="73">
+        <v>160</v>
+      </c>
+      <c r="O19" s="92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="95">
+        <v>43577</v>
+      </c>
+      <c r="C20" s="95">
+        <v>43580</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95">
+        <v>43713</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="89"/>
+      <c r="I20" s="94">
+        <v>43586</v>
+      </c>
+      <c r="J20" s="94"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="73">
+        <v>30</v>
+      </c>
+      <c r="O20" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="89"/>
+      <c r="I21" s="94">
+        <v>43586</v>
+      </c>
+      <c r="J21" s="94"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="73">
+        <v>261</v>
+      </c>
+      <c r="O21" s="92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="89"/>
+      <c r="I22" s="96">
+        <v>43525</v>
+      </c>
+      <c r="J22" s="96">
+        <v>43622</v>
+      </c>
+      <c r="K22" s="90">
+        <v>43662</v>
+      </c>
+      <c r="L22" s="90">
+        <v>43698</v>
+      </c>
+      <c r="M22" s="73">
+        <v>260</v>
+      </c>
+      <c r="O22" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="95">
+        <v>43586</v>
+      </c>
+      <c r="C23" s="95">
+        <v>43590</v>
+      </c>
+      <c r="D23" s="95">
+        <v>43626</v>
+      </c>
+      <c r="E23" s="95">
+        <v>43733</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="94">
+        <v>43590</v>
+      </c>
+      <c r="J23" s="94">
+        <v>43626</v>
+      </c>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="73">
+        <v>216</v>
+      </c>
+      <c r="N23" s="73">
+        <v>970</v>
+      </c>
+      <c r="O23" s="92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="95" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="P1" s="98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C2" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100">
-        <v>43697</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J2" s="99">
+      <c r="B24" s="95">
         <v>43556</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="77">
-        <v>11</v>
-      </c>
-      <c r="O2" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C3" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100">
-        <v>43677</v>
-      </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J3" s="99">
+      <c r="C24" s="95">
+        <v>43560</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="89"/>
+      <c r="I24" s="94">
         <v>43556</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="77">
-        <v>10</v>
-      </c>
-      <c r="O3" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C4" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J4" s="99">
-        <v>43556</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="77">
-        <v>14</v>
-      </c>
-      <c r="O4" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C5" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J5" s="99">
-        <v>43570</v>
-      </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="77">
-        <v>22</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C6" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="75">
-        <v>2</v>
-      </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C7" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="77">
-        <v>1</v>
-      </c>
-      <c r="O7" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C8" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D8" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E8" s="100">
-        <v>43617</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J8" s="99">
-        <v>43648</v>
-      </c>
-      <c r="K8" s="95">
-        <v>43679</v>
-      </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="77">
-        <v>701</v>
-      </c>
-      <c r="N8" s="77">
-        <v>963</v>
-      </c>
-      <c r="O8" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C9" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D9" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E9" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="77">
-        <v>1</v>
-      </c>
-      <c r="N9" s="77">
-        <v>970</v>
-      </c>
-      <c r="O9" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C10" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D10" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E10" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="77">
-        <v>1</v>
-      </c>
-      <c r="N10" s="77">
-        <v>970</v>
-      </c>
-      <c r="O10" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C11" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D11" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E11" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F11" s="68">
-        <v>43723</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="77">
-        <v>1</v>
-      </c>
-      <c r="N11" s="77">
-        <v>970</v>
-      </c>
-      <c r="O11" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C12" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D12" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E12" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F12" s="68">
-        <v>43723</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="99">
-        <v>43568</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="77">
-        <v>2</v>
-      </c>
-      <c r="N12" s="77">
-        <v>970</v>
-      </c>
-      <c r="O12" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12" s="97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C13" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D13" s="100">
-        <v>43687</v>
-      </c>
-      <c r="E13" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J13" s="99">
-        <v>43556</v>
-      </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="77">
-        <v>10</v>
-      </c>
-      <c r="N13" s="77">
-        <v>970</v>
-      </c>
-      <c r="O13" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="99">
-        <v>43362</v>
-      </c>
-      <c r="C14" s="100">
-        <v>43363</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100">
-        <v>43687</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="99">
-        <v>43525</v>
-      </c>
-      <c r="J14" s="99">
-        <v>43556</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="77">
-        <v>14</v>
-      </c>
-      <c r="N14" s="77">
-        <v>970</v>
-      </c>
-      <c r="O14" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C15" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D15" s="100">
-        <v>43558</v>
-      </c>
-      <c r="E15" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="99">
-        <v>43557</v>
-      </c>
-      <c r="J15" s="99">
-        <v>43556</v>
-      </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="77">
-        <v>1</v>
-      </c>
-      <c r="N15" s="77">
-        <v>101</v>
-      </c>
-      <c r="O15" s="97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100">
-        <v>43678</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="99">
-        <v>43556</v>
-      </c>
-      <c r="J16" s="99">
-        <v>43617</v>
-      </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="77">
-        <v>101</v>
-      </c>
-      <c r="O16" s="97" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C17" s="100">
-        <v>43557</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100">
-        <v>43661</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="94"/>
-      <c r="I17" s="99">
-        <v>43570</v>
-      </c>
-      <c r="J17" s="99">
-        <v>43626</v>
-      </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="77">
-        <v>151</v>
-      </c>
-      <c r="O17" s="97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="100">
-        <v>43586</v>
-      </c>
-      <c r="C18" s="100">
-        <v>43590</v>
-      </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100">
-        <v>43733</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="99">
-        <v>43590</v>
-      </c>
-      <c r="J18" s="99">
-        <v>43626</v>
-      </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="77">
-        <v>216</v>
-      </c>
-      <c r="O18" s="97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C19" s="100">
-        <v>43560</v>
-      </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100">
-        <v>43733</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="99">
-        <v>43560</v>
-      </c>
-      <c r="J19" s="99">
-        <v>43626</v>
-      </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="77">
-        <v>160</v>
-      </c>
-      <c r="O19" s="97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="100">
-        <v>43577</v>
-      </c>
-      <c r="C20" s="100">
-        <v>43580</v>
-      </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100">
-        <v>43713</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="99">
-        <v>43586</v>
-      </c>
-      <c r="J20" s="99"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="77">
-        <v>30</v>
-      </c>
-      <c r="O20" s="97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="99">
-        <v>43586</v>
-      </c>
-      <c r="J21" s="99"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="77">
-        <v>261</v>
-      </c>
-      <c r="O21" s="97" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="101">
-        <v>43525</v>
-      </c>
-      <c r="J22" s="101">
+      <c r="J24" s="94">
         <v>43622</v>
       </c>
-      <c r="K22" s="95">
+      <c r="K24" s="90">
         <v>43662</v>
       </c>
-      <c r="L22" s="95">
+      <c r="L24" s="91">
         <v>43698</v>
       </c>
-      <c r="M22" s="77">
-        <v>260</v>
-      </c>
-      <c r="O22" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="100">
-        <v>43586</v>
-      </c>
-      <c r="C23" s="100">
-        <v>43590</v>
-      </c>
-      <c r="D23" s="100">
-        <v>43626</v>
-      </c>
-      <c r="E23" s="100">
-        <v>43733</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="99">
-        <v>43590</v>
-      </c>
-      <c r="J23" s="99">
-        <v>43626</v>
-      </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="77">
-        <v>216</v>
-      </c>
-      <c r="N23" s="77">
-        <v>970</v>
-      </c>
-      <c r="O23" s="97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C24" s="100">
-        <v>43560</v>
-      </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="94"/>
-      <c r="I24" s="99">
-        <v>43556</v>
-      </c>
-      <c r="J24" s="99">
-        <v>43622</v>
-      </c>
-      <c r="K24" s="95">
-        <v>43662</v>
-      </c>
-      <c r="L24" s="96">
-        <v>43698</v>
-      </c>
-      <c r="M24" s="77">
+      <c r="M24" s="73">
         <v>252</v>
       </c>
-      <c r="O24" s="97" t="s">
-        <v>140</v>
+      <c r="O24" s="92" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="100">
+        <v>126</v>
+      </c>
+      <c r="B25" s="95">
         <v>43556</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="95">
         <v>43560</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100" t="s">
+      <c r="D25" s="95"/>
+      <c r="E25" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70" t="s">
+      <c r="F25" s="67"/>
+      <c r="G25" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="94"/>
-      <c r="I25" s="99">
+      <c r="H25" s="89"/>
+      <c r="I25" s="94">
         <v>43570</v>
       </c>
-      <c r="J25" s="99">
+      <c r="J25" s="94">
         <v>43622</v>
       </c>
-      <c r="K25" s="95">
+      <c r="K25" s="90">
         <v>43662</v>
       </c>
-      <c r="L25" s="96">
+      <c r="L25" s="91">
         <v>43698</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="73">
         <v>252</v>
       </c>
-      <c r="O25" s="97" t="s">
-        <v>140</v>
+      <c r="O25" s="92" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70" t="s">
+      <c r="F26" s="67"/>
+      <c r="G26" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="99">
+      <c r="H26" s="89"/>
+      <c r="I26" s="94">
         <v>43586</v>
       </c>
-      <c r="J26" s="99">
+      <c r="J26" s="94">
         <v>43662</v>
       </c>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="77">
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="73">
         <v>252</v>
       </c>
-      <c r="O26" s="97" t="s">
-        <v>140</v>
+      <c r="O26" s="92" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="89"/>
+      <c r="I27" s="94">
+        <v>43586</v>
+      </c>
+      <c r="J27" s="94">
+        <v>43662</v>
+      </c>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="73">
+        <v>252</v>
+      </c>
+      <c r="O27" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="89"/>
+      <c r="I28" s="96">
+        <v>43525</v>
+      </c>
+      <c r="J28" s="96">
+        <v>43622</v>
+      </c>
+      <c r="K28" s="90">
+        <v>43662</v>
+      </c>
+      <c r="L28" s="90">
+        <v>43698</v>
+      </c>
+      <c r="M28" s="73">
+        <v>257</v>
+      </c>
+      <c r="O28" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C29" s="95">
+        <v>43560</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="89"/>
+      <c r="I29" s="94">
+        <v>43570</v>
+      </c>
+      <c r="J29" s="96">
+        <v>43622</v>
+      </c>
+      <c r="K29" s="90">
+        <v>43662</v>
+      </c>
+      <c r="L29" s="90">
+        <v>43698</v>
+      </c>
+      <c r="M29" s="73">
+        <v>257</v>
+      </c>
+      <c r="O29" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C30" s="95">
+        <v>43560</v>
+      </c>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="89"/>
+      <c r="I30" s="94">
+        <v>43570</v>
+      </c>
+      <c r="J30" s="96">
+        <v>43622</v>
+      </c>
+      <c r="K30" s="90">
+        <v>43662</v>
+      </c>
+      <c r="L30" s="90">
+        <v>43698</v>
+      </c>
+      <c r="M30" s="73">
+        <v>256</v>
+      </c>
+      <c r="O30" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70" t="s">
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="94"/>
-      <c r="I27" s="99">
-        <v>43586</v>
-      </c>
-      <c r="J27" s="99">
+      <c r="H31" s="89"/>
+      <c r="I31" s="96">
+        <v>43525</v>
+      </c>
+      <c r="J31" s="96">
+        <v>43622</v>
+      </c>
+      <c r="K31" s="90">
         <v>43662</v>
       </c>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="77">
-        <v>252</v>
-      </c>
-      <c r="O27" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="94"/>
-      <c r="I28" s="101">
-        <v>43525</v>
-      </c>
-      <c r="J28" s="101">
-        <v>43622</v>
-      </c>
-      <c r="K28" s="95">
-        <v>43662</v>
-      </c>
-      <c r="L28" s="95">
+      <c r="L31" s="90">
         <v>43698</v>
       </c>
-      <c r="M28" s="77">
-        <v>257</v>
-      </c>
-      <c r="O28" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C29" s="100">
-        <v>43560</v>
-      </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="94"/>
-      <c r="I29" s="99">
-        <v>43570</v>
-      </c>
-      <c r="J29" s="101">
-        <v>43622</v>
-      </c>
-      <c r="K29" s="95">
-        <v>43662</v>
-      </c>
-      <c r="L29" s="95">
-        <v>43698</v>
-      </c>
-      <c r="M29" s="77">
-        <v>257</v>
-      </c>
-      <c r="O29" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="100">
-        <v>43556</v>
-      </c>
-      <c r="C30" s="100">
-        <v>43560</v>
-      </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="94"/>
-      <c r="I30" s="99">
-        <v>43570</v>
-      </c>
-      <c r="J30" s="101">
-        <v>43622</v>
-      </c>
-      <c r="K30" s="95">
-        <v>43662</v>
-      </c>
-      <c r="L30" s="95">
-        <v>43698</v>
-      </c>
-      <c r="M30" s="77">
+      <c r="M31" s="73">
         <v>256</v>
       </c>
-      <c r="O30" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="101">
-        <v>43525</v>
-      </c>
-      <c r="J31" s="101">
-        <v>43622</v>
-      </c>
-      <c r="K31" s="95">
-        <v>43662</v>
-      </c>
-      <c r="L31" s="95">
-        <v>43698</v>
-      </c>
-      <c r="M31" s="77">
-        <v>256</v>
-      </c>
-      <c r="O31" s="97" t="s">
-        <v>140</v>
+      <c r="O31" s="92" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33"/>
@@ -3427,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -3873,193 +4412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="79">
-        <v>0</v>
-      </c>
-      <c r="D2" s="79">
-        <v>85</v>
-      </c>
-      <c r="E2" s="79">
-        <v>170</v>
-      </c>
-      <c r="F2" s="78"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79">
-        <v>170</v>
-      </c>
-      <c r="F3" s="79">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79">
-        <v>85</v>
-      </c>
-      <c r="E4" s="79">
-        <v>170</v>
-      </c>
-      <c r="F4" s="79">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79">
-        <v>85</v>
-      </c>
-      <c r="E5" s="79">
-        <v>170</v>
-      </c>
-      <c r="F5" s="78"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79">
-        <v>85</v>
-      </c>
-      <c r="E6" s="79">
-        <v>170</v>
-      </c>
-      <c r="F6" s="78"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0</v>
-      </c>
-      <c r="D7" s="80">
-        <v>85</v>
-      </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="78"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="79">
-        <v>0</v>
-      </c>
-      <c r="D8" s="79">
-        <v>85</v>
-      </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="78"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="79">
-        <v>0</v>
-      </c>
-      <c r="D9" s="79">
-        <v>85</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="78"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="79">
-        <v>85</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="78"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -151,9 +151,6 @@
     <t>SB</t>
   </si>
   <si>
-    <t>Fodder Beet</t>
-  </si>
-  <si>
     <t>Pea</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>GræsVstart</t>
   </si>
   <si>
-    <t>O2DS</t>
-  </si>
-  <si>
     <t>170 kgN</t>
   </si>
   <si>
@@ -491,6 +485,9 @@
   </si>
   <si>
     <t>SK1E</t>
+  </si>
+  <si>
+    <t>Sugar Beet</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,58 +1612,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="Q1" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="52" t="s">
         <v>92</v>
-      </c>
-      <c r="R1" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="52" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,25 +1680,25 @@
         <v>33</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>3</v>
@@ -1713,19 +1710,19 @@
         <v>2</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="79" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1739,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>9</v>
@@ -1757,13 +1754,13 @@
         <v>9</v>
       </c>
       <c r="J3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="34" t="s">
-        <v>63</v>
-      </c>
       <c r="L3" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>37</v>
@@ -1781,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>3</v>
@@ -1795,16 +1792,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="107" t="s">
         <v>9</v>
@@ -1816,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>63</v>
-      </c>
       <c r="L4" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>37</v>
@@ -1834,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="81" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S4" s="31" t="s">
         <v>2</v>
@@ -1866,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="104" t="s">
         <v>9</v>
@@ -1875,16 +1872,16 @@
         <v>9</v>
       </c>
       <c r="J5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="L5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="46" t="s">
         <v>2</v>
@@ -1899,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>2</v>
@@ -1934,10 +1931,10 @@
         <v>9</v>
       </c>
       <c r="J6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="L6" s="49" t="s">
         <v>2</v>
@@ -1955,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="48" t="s">
         <v>34</v>
@@ -1969,10 +1966,10 @@
         <v>33</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="109" t="s">
         <v>2</v>
@@ -1984,14 +1981,14 @@
         <v>2</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>10</v>
@@ -2001,19 +1998,19 @@
         <v>2</v>
       </c>
       <c r="O7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="Q7" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2021,58 +2018,58 @@
         <v>11</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="K8" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>115</v>
-      </c>
       <c r="L8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R8" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S8" s="58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2082,43 +2079,43 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="58"/>
       <c r="K9" s="58"/>
       <c r="L9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="58"/>
       <c r="R9" s="58"/>
       <c r="S9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" t="s">
@@ -2169,7 +2166,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -2193,7 +2190,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2270,37 +2267,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>150</v>
-      </c>
       <c r="I1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>50</v>
-      </c>
       <c r="K1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="97" t="s">
         <v>93</v>
-      </c>
-      <c r="L1" s="97" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2311,31 +2308,31 @@
         <v>33</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="53" t="s">
         <v>37</v>
@@ -2346,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>9</v>
@@ -2355,10 +2352,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>37</v>
@@ -2393,10 +2390,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="83" t="s">
         <v>35</v>
@@ -2405,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>35</v>
@@ -2431,28 +2428,28 @@
         <v>9</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,20 +2466,20 @@
         <v>9</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>34</v>
@@ -2496,17 +2493,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="111" t="s">
@@ -2519,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2546,42 +2543,42 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>13</v>
@@ -2589,13 +2586,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2621,27 +2618,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="75">
         <v>0</v>
@@ -2656,10 +2653,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="75"/>
       <c r="D3" s="74"/>
@@ -2672,10 +2669,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="75"/>
       <c r="D4" s="75">
@@ -2690,10 +2687,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="75">
@@ -2706,10 +2703,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="75">
@@ -2722,10 +2719,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="75">
         <v>0</v>
@@ -2738,10 +2735,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="75">
         <v>0</v>
@@ -2756,10 +2753,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="75">
         <v>0</v>
@@ -2774,10 +2771,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="74">
         <v>0</v>
@@ -2800,8 +2797,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,46 +2824,46 @@
         <v>30</v>
       </c>
       <c r="C1" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="88" t="s">
-        <v>90</v>
-      </c>
       <c r="I1" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="L1" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>131</v>
-      </c>
       <c r="M1" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N1" s="72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O1" s="93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P1" s="93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2885,7 +2882,7 @@
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="89"/>
       <c r="I2" s="94">
@@ -2900,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="O2" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2953,7 +2950,7 @@
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" s="89"/>
       <c r="I4" s="94">
@@ -2968,7 +2965,7 @@
         <v>14</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2987,7 +2984,7 @@
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="89"/>
       <c r="I5" s="94">
@@ -3002,12 +2999,12 @@
         <v>22</v>
       </c>
       <c r="O5" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="95">
         <v>43556</v>
@@ -3021,7 +3018,7 @@
       </c>
       <c r="F6" s="66"/>
       <c r="G6" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="89"/>
       <c r="I6" s="94">
@@ -3035,7 +3032,7 @@
       </c>
       <c r="N6" s="71"/>
       <c r="O6" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3067,12 +3064,12 @@
         <v>1</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="95">
         <v>43556</v>
@@ -3093,7 +3090,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="94">
         <v>43568</v>
@@ -3112,15 +3109,15 @@
         <v>963</v>
       </c>
       <c r="O8" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="95">
         <v>43556</v>
@@ -3139,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="94">
         <v>43568</v>
@@ -3154,12 +3151,12 @@
         <v>970</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="95">
         <v>43556</v>
@@ -3178,7 +3175,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="94">
         <v>43568</v>
@@ -3193,7 +3190,7 @@
         <v>970</v>
       </c>
       <c r="O10" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3219,7 +3216,7 @@
         <v>38</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="94">
         <v>43568</v>
@@ -3234,15 +3231,15 @@
         <v>970</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P11" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="95">
         <v>43556</v>
@@ -3260,10 +3257,10 @@
         <v>43723</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="94">
         <v>43568</v>
@@ -3278,15 +3275,15 @@
         <v>970</v>
       </c>
       <c r="O12" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P12" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="94">
         <v>43362</v>
@@ -3305,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="94">
         <v>43525</v>
@@ -3322,12 +3319,12 @@
         <v>970</v>
       </c>
       <c r="O13" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="94">
         <v>43362</v>
@@ -3341,7 +3338,7 @@
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H14" s="89"/>
       <c r="I14" s="94">
@@ -3359,12 +3356,12 @@
         <v>970</v>
       </c>
       <c r="O14" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="95">
         <v>43556</v>
@@ -3383,7 +3380,7 @@
         <v>38</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="94">
         <v>43557</v>
@@ -3400,7 +3397,7 @@
         <v>101</v>
       </c>
       <c r="O15" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -3415,7 +3412,7 @@
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="89"/>
       <c r="I16" s="94">
@@ -3430,7 +3427,7 @@
         <v>101</v>
       </c>
       <c r="O16" s="92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3449,7 +3446,7 @@
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="89"/>
       <c r="I17" s="94">
@@ -3464,7 +3461,7 @@
         <v>151</v>
       </c>
       <c r="O17" s="92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3517,7 +3514,7 @@
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="66" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="H19" s="89"/>
       <c r="I19" s="94">
@@ -3532,7 +3529,7 @@
         <v>160</v>
       </c>
       <c r="O19" s="92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3551,7 +3548,7 @@
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="89"/>
       <c r="I20" s="94">
@@ -3564,7 +3561,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3578,7 +3575,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="89"/>
       <c r="I21" s="94">
@@ -3591,7 +3588,7 @@
         <v>261</v>
       </c>
       <c r="O21" s="92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3605,7 +3602,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="89"/>
       <c r="I22" s="96">
@@ -3624,12 +3621,12 @@
         <v>260</v>
       </c>
       <c r="O22" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="95">
         <v>43586</v>
@@ -3648,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="94">
         <v>43590</v>
@@ -3665,12 +3662,12 @@
         <v>970</v>
       </c>
       <c r="O23" s="92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="95">
         <v>43556</v>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="94">
@@ -3703,12 +3700,12 @@
         <v>252</v>
       </c>
       <c r="O24" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="95">
         <v>43556</v>
@@ -3722,7 +3719,7 @@
       </c>
       <c r="F25" s="67"/>
       <c r="G25" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="89"/>
       <c r="I25" s="94">
@@ -3741,12 +3738,12 @@
         <v>252</v>
       </c>
       <c r="O25" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="95"/>
       <c r="C26" s="95"/>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="94">
@@ -3771,12 +3768,12 @@
         <v>252</v>
       </c>
       <c r="O26" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
@@ -3786,7 +3783,7 @@
       </c>
       <c r="F27" s="67"/>
       <c r="G27" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="89"/>
       <c r="I27" s="94">
@@ -3801,12 +3798,12 @@
         <v>252</v>
       </c>
       <c r="O27" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="95"/>
       <c r="C28" s="95"/>
@@ -3816,7 +3813,7 @@
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="96">
@@ -3835,12 +3832,12 @@
         <v>257</v>
       </c>
       <c r="O28" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="95">
         <v>43556</v>
@@ -3854,7 +3851,7 @@
       </c>
       <c r="F29" s="67"/>
       <c r="G29" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="89"/>
       <c r="I29" s="94">
@@ -3873,12 +3870,12 @@
         <v>257</v>
       </c>
       <c r="O29" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="95">
         <v>43556</v>
@@ -3892,7 +3889,7 @@
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" s="89"/>
       <c r="I30" s="94">
@@ -3911,12 +3908,12 @@
         <v>256</v>
       </c>
       <c r="O30" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="95"/>
       <c r="C31" s="95"/>
@@ -3926,7 +3923,7 @@
       </c>
       <c r="F31" s="67"/>
       <c r="G31" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="89"/>
       <c r="I31" s="96">
@@ -3945,7 +3942,7 @@
         <v>256</v>
       </c>
       <c r="O31" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3983,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -4037,7 +4034,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23">
         <v>43739</v>
@@ -4110,14 +4107,14 @@
         <v>43557</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="23">
         <v>43768</v>
@@ -4125,10 +4122,10 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4145,15 +4142,15 @@
         <v>43678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="23">
         <v>43768</v>
@@ -4165,15 +4162,15 @@
         <v>43678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="23">
         <v>43768</v>
@@ -4185,10 +4182,10 @@
         <v>43678</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4201,7 +4198,7 @@
         <v>43678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7">
         <v>101</v>
@@ -4285,7 +4282,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7">
         <v>260</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="23">
         <v>43556</v>
@@ -4305,7 +4302,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7">
         <v>963</v>
@@ -4313,7 +4310,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="23">
         <v>43556</v>
@@ -4325,10 +4322,10 @@
         <v>43758</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4343,13 +4340,13 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>16</v>
@@ -4361,7 +4358,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7">
         <v>252</v>
@@ -4369,7 +4366,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -4381,7 +4378,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="7">
         <v>255</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="23">
         <v>43556</v>
@@ -4401,7 +4398,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="7">
         <v>255</v>

--- a/Scenarios/common/masterinput_v2.xlsx
+++ b/Scenarios/common/masterinput_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Rotations" sheetId="1" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2246,7 +2246,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,8 +2797,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,36 +3704,28 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="95">
-        <v>43556</v>
-      </c>
-      <c r="C25" s="95">
-        <v>43560</v>
-      </c>
+      <c r="A25" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="95"/>
       <c r="E25" s="95" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="67"/>
       <c r="G25" s="66" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H25" s="89"/>
       <c r="I25" s="94">
-        <v>43570</v>
+        <v>43586</v>
       </c>
       <c r="J25" s="94">
-        <v>43622</v>
-      </c>
-      <c r="K25" s="90">
         <v>43662</v>
       </c>
-      <c r="L25" s="91">
-        <v>43698</v>
-      </c>
+      <c r="K25" s="90"/>
+      <c r="L25" s="91"/>
       <c r="M25" s="73">
         <v>252</v>
       </c>
@@ -3742,28 +3734,36 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="95">
+        <v>43556</v>
+      </c>
+      <c r="C26" s="95">
+        <v>43560</v>
+      </c>
       <c r="D26" s="95"/>
       <c r="E26" s="95" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="66" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="94">
-        <v>43586</v>
+        <v>43570</v>
       </c>
       <c r="J26" s="94">
+        <v>43622</v>
+      </c>
+      <c r="K26" s="90">
         <v>43662</v>
       </c>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
+      <c r="L26" s="91">
+        <v>43698</v>
+      </c>
       <c r="M26" s="73">
         <v>252</v>
       </c>
